--- a/data/measles_lab.xlsx
+++ b/data/measles_lab.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://resolvetosavelives-my.sharepoint.com/personal/skim_rtsl_org/Documents/Documents/Work/EIT/Other ad-hocs/Data analytics technical assessment_v2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc-my.sharepoint.com/personal/wxf7_cdc_gov/Documents/GitHub/rtsl_assessment/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{63A3D604-FD71-40DF-BAFE-C4B48CE75D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CEB4894-31C3-40C4-B9C9-F00F59C7DCEE}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{63A3D604-FD71-40DF-BAFE-C4B48CE75D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDE2815F-EFB0-41A9-AA3C-5CF315D54C10}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="4260" windowWidth="26355" windowHeight="15705" xr2:uid="{423F26A5-AE63-403D-9D47-A5DE55E42BE2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{423F26A5-AE63-403D-9D47-A5DE55E42BE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$554</definedName>
     <definedName name="ExternalData_1" localSheetId="0">Sheet1!$A$1:$H$554</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2882,28 +2883,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF9EC4E-F507-4FCC-87A1-AD6CC241CBB9}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="L560" sqref="L560"/>
+    <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
+      <selection activeCell="E512" sqref="E512"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="6" customWidth="1"/>
     <col min="6" max="6" width="9" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="6" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="17.42578125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="7" max="7" width="12.26953125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" style="6" customWidth="1"/>
+    <col min="9" max="11" width="9.1796875" style="5"/>
+    <col min="12" max="12" width="17.453125" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2929,7 +2931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>249</v>
       </c>
@@ -2955,7 +2957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>250</v>
       </c>
@@ -2981,7 +2983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>251</v>
       </c>
@@ -3007,7 +3009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>252</v>
       </c>
@@ -3036,7 +3038,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>253</v>
       </c>
@@ -3065,7 +3067,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>254</v>
       </c>
@@ -3094,21 +3096,21 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45352</v>
       </c>
       <c r="D8" s="4">
         <v>45383</v>
       </c>
       <c r="E8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
@@ -3123,27 +3125,27 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>279</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45383</v>
       </c>
       <c r="C9" s="4">
-        <v>45352</v>
-      </c>
-      <c r="D9" s="4">
-        <v>45383</v>
+        <v>45474</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>22</v>
@@ -3152,7 +3154,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>257</v>
       </c>
@@ -3181,7 +3183,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>258</v>
       </c>
@@ -3207,7 +3209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>259</v>
       </c>
@@ -3233,7 +3235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>260</v>
       </c>
@@ -3259,7 +3261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>261</v>
       </c>
@@ -3285,7 +3287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>262</v>
       </c>
@@ -3311,7 +3313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>263</v>
       </c>
@@ -3337,33 +3339,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="B17" s="4">
-        <v>45058</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="4">
-        <v>45505</v>
+        <v>45383</v>
+      </c>
+      <c r="C17" s="4">
+        <v>45474</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>265</v>
       </c>
@@ -3389,85 +3391,85 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="B19" s="4">
-        <v>45119</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="4">
-        <v>45505</v>
+        <v>45383</v>
+      </c>
+      <c r="C19" s="4">
+        <v>45474</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B20" s="4">
-        <v>45058</v>
-      </c>
-      <c r="C20" s="4">
-        <v>45242</v>
+        <v>342</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D20" s="4">
-        <v>45505</v>
+        <v>45324</v>
       </c>
       <c r="E20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B21" s="4">
-        <v>45211</v>
+        <v>344</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="4">
-        <v>45505</v>
+        <v>73</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>269</v>
       </c>
@@ -3493,7 +3495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>270</v>
       </c>
@@ -3519,7 +3521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>271</v>
       </c>
@@ -3545,7 +3547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>272</v>
       </c>
@@ -3571,7 +3573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>273</v>
       </c>
@@ -3597,7 +3599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>274</v>
       </c>
@@ -3623,7 +3625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>275</v>
       </c>
@@ -3649,7 +3651,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>276</v>
       </c>
@@ -3675,7 +3677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>277</v>
       </c>
@@ -3701,7 +3703,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>278</v>
       </c>
@@ -3727,44 +3729,44 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>279</v>
+        <v>345</v>
       </c>
       <c r="B32" s="4">
-        <v>45383</v>
-      </c>
-      <c r="C32" s="4">
-        <v>45474</v>
+        <v>45598</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
       </c>
       <c r="F32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B33" s="4">
-        <v>45383</v>
-      </c>
-      <c r="C33" s="4">
-        <v>45474</v>
+        <v>391</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -3773,24 +3775,24 @@
         <v>2</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>281</v>
+        <v>437</v>
       </c>
       <c r="B34" s="4">
-        <v>45383</v>
+        <v>45507</v>
       </c>
       <c r="C34" s="4">
-        <v>45474</v>
+        <v>45599</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -3799,13 +3801,13 @@
         <v>2</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>282</v>
       </c>
@@ -3831,7 +3833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>283</v>
       </c>
@@ -3857,7 +3859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>284</v>
       </c>
@@ -3883,7 +3885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>285</v>
       </c>
@@ -3909,7 +3911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>286</v>
       </c>
@@ -3935,7 +3937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>287</v>
       </c>
@@ -3961,7 +3963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>288</v>
       </c>
@@ -3987,7 +3989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>289</v>
       </c>
@@ -4013,7 +4015,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>290</v>
       </c>
@@ -4039,7 +4041,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>291</v>
       </c>
@@ -4065,7 +4067,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>292</v>
       </c>
@@ -4091,33 +4093,33 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>293</v>
+        <v>473</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>39</v>
+        <v>130</v>
+      </c>
+      <c r="D46" s="4">
+        <v>45386</v>
       </c>
       <c r="E46" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="3">
         <v>2</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>294</v>
       </c>
@@ -4143,7 +4145,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>295</v>
       </c>
@@ -4169,59 +4171,59 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>296</v>
+        <v>475</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>56</v>
+        <v>120</v>
+      </c>
+      <c r="D49" s="4">
+        <v>45386</v>
       </c>
       <c r="E49" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" s="3">
         <v>2</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>297</v>
+        <v>476</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>60</v>
+        <v>117</v>
+      </c>
+      <c r="D50" s="4">
+        <v>45386</v>
       </c>
       <c r="E50" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="3">
         <v>2</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>298</v>
       </c>
@@ -4247,7 +4249,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>299</v>
       </c>
@@ -4273,33 +4275,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>63</v>
+        <v>120</v>
+      </c>
+      <c r="D53" s="4">
+        <v>45386</v>
       </c>
       <c r="E53" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>301</v>
       </c>
@@ -4325,7 +4327,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>302</v>
       </c>
@@ -4351,7 +4353,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>303</v>
       </c>
@@ -4377,7 +4379,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>304</v>
       </c>
@@ -4403,7 +4405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>305</v>
       </c>
@@ -4429,7 +4431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>306</v>
       </c>
@@ -4455,7 +4457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>307</v>
       </c>
@@ -4481,7 +4483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>308</v>
       </c>
@@ -4507,7 +4509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>309</v>
       </c>
@@ -4533,7 +4535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>310</v>
       </c>
@@ -4559,7 +4561,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>311</v>
       </c>
@@ -4585,7 +4587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>312</v>
       </c>
@@ -4611,7 +4613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>313</v>
       </c>
@@ -4637,7 +4639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>314</v>
       </c>
@@ -4663,7 +4665,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>315</v>
       </c>
@@ -4689,7 +4691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>316</v>
       </c>
@@ -4715,7 +4717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>317</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>318</v>
       </c>
@@ -4767,7 +4769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>319</v>
       </c>
@@ -4793,7 +4795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>320</v>
       </c>
@@ -4819,7 +4821,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>321</v>
       </c>
@@ -4845,7 +4847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>322</v>
       </c>
@@ -4871,7 +4873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>323</v>
       </c>
@@ -4897,7 +4899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>324</v>
       </c>
@@ -4923,7 +4925,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>325</v>
       </c>
@@ -4949,7 +4951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>326</v>
       </c>
@@ -4975,7 +4977,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>327</v>
       </c>
@@ -5001,7 +5003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>328</v>
       </c>
@@ -5027,7 +5029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>329</v>
       </c>
@@ -5053,7 +5055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>330</v>
       </c>
@@ -5079,7 +5081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>331</v>
       </c>
@@ -5105,7 +5107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>332</v>
       </c>
@@ -5131,7 +5133,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>333</v>
       </c>
@@ -5157,7 +5159,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>334</v>
       </c>
@@ -5183,7 +5185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>335</v>
       </c>
@@ -5209,7 +5211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>336</v>
       </c>
@@ -5235,7 +5237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>337</v>
       </c>
@@ -5261,7 +5263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>338</v>
       </c>
@@ -5287,7 +5289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>339</v>
       </c>
@@ -5313,7 +5315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>340</v>
       </c>
@@ -5339,7 +5341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>341</v>
       </c>
@@ -5365,18 +5367,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>342</v>
+        <v>508</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="D95" s="4">
-        <v>45324</v>
+        <v>45600</v>
       </c>
       <c r="E95" s="3">
         <v>1</v>
@@ -5391,44 +5393,44 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>343</v>
+        <v>520</v>
       </c>
       <c r="B96" s="4">
-        <v>45567</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>67</v>
+        <v>45600</v>
+      </c>
+      <c r="C96" s="4">
+        <v>45630</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="E96" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F96" s="3">
         <v>2</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>344</v>
+        <v>532</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="E97" s="3">
         <v>1</v>
@@ -5443,18 +5445,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B98" s="4">
-        <v>45598</v>
+        <v>538</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="E98" s="3">
         <v>1</v>
@@ -5463,13 +5465,13 @@
         <v>2</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>346</v>
       </c>
@@ -5495,7 +5497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>347</v>
       </c>
@@ -5521,59 +5523,59 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B101" s="4">
-        <v>45567</v>
+        <v>541</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="E101" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="B102" s="4">
-        <v>45567</v>
+        <v>544</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="E102" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F102" s="3">
         <v>2</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>350</v>
       </c>
@@ -5599,7 +5601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>351</v>
       </c>
@@ -5625,7 +5627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>352</v>
       </c>
@@ -5651,7 +5653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>353</v>
       </c>
@@ -5677,7 +5679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>354</v>
       </c>
@@ -5703,7 +5705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>355</v>
       </c>
@@ -5729,7 +5731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>356</v>
       </c>
@@ -5755,7 +5757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>357</v>
       </c>
@@ -5781,7 +5783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>358</v>
       </c>
@@ -5807,7 +5809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>359</v>
       </c>
@@ -5833,7 +5835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>360</v>
       </c>
@@ -5859,7 +5861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>361</v>
       </c>
@@ -5885,7 +5887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>362</v>
       </c>
@@ -5911,7 +5913,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>363</v>
       </c>
@@ -5937,85 +5939,85 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>364</v>
+        <v>555</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="E117" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" s="3">
         <v>2</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>365</v>
+        <v>566</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>88</v>
+        <v>169</v>
+      </c>
+      <c r="D118" s="4">
+        <v>45449</v>
       </c>
       <c r="E118" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F118" s="3">
         <v>2</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>366</v>
+        <v>596</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="E119" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F119" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>367</v>
       </c>
@@ -6041,7 +6043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>368</v>
       </c>
@@ -6067,7 +6069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>369</v>
       </c>
@@ -6093,7 +6095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>370</v>
       </c>
@@ -6119,7 +6121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>371</v>
       </c>
@@ -6145,7 +6147,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>372</v>
       </c>
@@ -6171,7 +6173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>373</v>
       </c>
@@ -6197,7 +6199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>374</v>
       </c>
@@ -6223,7 +6225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>375</v>
       </c>
@@ -6249,7 +6251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>376</v>
       </c>
@@ -6275,7 +6277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>377</v>
       </c>
@@ -6301,7 +6303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>378</v>
       </c>
@@ -6327,7 +6329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>379</v>
       </c>
@@ -6353,7 +6355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>380</v>
       </c>
@@ -6379,7 +6381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>381</v>
       </c>
@@ -6405,7 +6407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>382</v>
       </c>
@@ -6431,7 +6433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>383</v>
       </c>
@@ -6457,7 +6459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>384</v>
       </c>
@@ -6483,7 +6485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>385</v>
       </c>
@@ -6509,33 +6511,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>386</v>
+        <v>598</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="E139" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F139" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="H139" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>387</v>
       </c>
@@ -6561,33 +6563,33 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>388</v>
+        <v>619</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="E141" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F141" s="3">
         <v>2</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>389</v>
       </c>
@@ -6613,7 +6615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>390</v>
       </c>
@@ -6639,18 +6641,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>391</v>
+        <v>620</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="E144" s="3">
         <v>1</v>
@@ -6659,65 +6661,65 @@
         <v>2</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>392</v>
+        <v>634</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>81</v>
+        <v>200</v>
+      </c>
+      <c r="D145" s="4">
+        <v>45327</v>
       </c>
       <c r="E145" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F145" s="3">
         <v>2</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="H145" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>393</v>
+        <v>667</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D146" s="4">
-        <v>45294</v>
+        <v>149</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="E146" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F146" s="3">
         <v>2</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>394</v>
       </c>
@@ -6743,7 +6745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>395</v>
       </c>
@@ -6769,7 +6771,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>396</v>
       </c>
@@ -6795,7 +6797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>397</v>
       </c>
@@ -6821,7 +6823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>398</v>
       </c>
@@ -6847,7 +6849,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>399</v>
       </c>
@@ -6873,7 +6875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>400</v>
       </c>
@@ -6899,33 +6901,33 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>401</v>
+        <v>711</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C154" s="4">
-        <v>45354</v>
-      </c>
-      <c r="D154" s="4">
-        <v>45385</v>
+        <v>216</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="E154" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F154" s="3">
         <v>2</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>402</v>
       </c>
@@ -6951,7 +6953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>403</v>
       </c>
@@ -6977,7 +6979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>404</v>
       </c>
@@ -7003,7 +7005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>405</v>
       </c>
@@ -7029,7 +7031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>406</v>
       </c>
@@ -7055,7 +7057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>407</v>
       </c>
@@ -7081,7 +7083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>408</v>
       </c>
@@ -7107,33 +7109,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>409</v>
+        <v>712</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C162" s="4">
-        <v>45354</v>
-      </c>
-      <c r="D162" s="4">
-        <v>45354</v>
+        <v>221</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="E162" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F162" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="H162" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>410</v>
       </c>
@@ -7159,7 +7161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>411</v>
       </c>
@@ -7185,7 +7187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>412</v>
       </c>
@@ -7211,7 +7213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>413</v>
       </c>
@@ -7237,7 +7239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>414</v>
       </c>
@@ -7263,7 +7265,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>415</v>
       </c>
@@ -7289,7 +7291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>416</v>
       </c>
@@ -7315,7 +7317,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>417</v>
       </c>
@@ -7341,7 +7343,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>418</v>
       </c>
@@ -7367,85 +7369,85 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
-        <v>419</v>
+        <v>740</v>
       </c>
       <c r="B172" s="4">
-        <v>45354</v>
+        <v>45390</v>
       </c>
       <c r="C172" s="4">
-        <v>45476</v>
+        <v>45420</v>
       </c>
       <c r="D172" s="4">
-        <v>45476</v>
+        <v>45451</v>
       </c>
       <c r="E172" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F172" s="3">
         <v>2</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="H172" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>420</v>
+        <v>744</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C173" s="4">
-        <v>45294</v>
+        <v>222</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="D173" s="4">
-        <v>45476</v>
+        <v>45420</v>
       </c>
       <c r="E173" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F173" s="3">
         <v>2</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H173" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>421</v>
+        <v>756</v>
       </c>
       <c r="B174" s="4">
-        <v>45354</v>
+        <v>45420</v>
       </c>
       <c r="C174" s="4">
-        <v>45446</v>
+        <v>45451</v>
       </c>
       <c r="D174" s="4">
-        <v>45476</v>
+        <v>45512</v>
       </c>
       <c r="E174" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F174" s="3">
         <v>2</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="H174" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>422</v>
       </c>
@@ -7471,7 +7473,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>423</v>
       </c>
@@ -7497,7 +7499,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>424</v>
       </c>
@@ -7523,59 +7525,59 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
-        <v>425</v>
+        <v>757</v>
       </c>
       <c r="B178" s="4">
-        <v>45325</v>
+        <v>45420</v>
       </c>
       <c r="C178" s="4">
-        <v>45415</v>
+        <v>45481</v>
       </c>
       <c r="D178" s="4">
-        <v>45538</v>
+        <v>45512</v>
       </c>
       <c r="E178" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F178" s="3">
         <v>2</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
-        <v>426</v>
+        <v>787</v>
       </c>
       <c r="B179" s="4">
-        <v>45415</v>
-      </c>
-      <c r="C179" s="4">
-        <v>45446</v>
-      </c>
-      <c r="D179" s="4">
-        <v>45538</v>
+        <v>45634</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="E179" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F179" s="3">
         <v>2</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="H179" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>427</v>
       </c>
@@ -7601,7 +7603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>428</v>
       </c>
@@ -7627,7 +7629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>429</v>
       </c>
@@ -7653,7 +7655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>430</v>
       </c>
@@ -7679,7 +7681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>431</v>
       </c>
@@ -7705,7 +7707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>432</v>
       </c>
@@ -7731,7 +7733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>433</v>
       </c>
@@ -7757,7 +7759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>434</v>
       </c>
@@ -7783,7 +7785,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>435</v>
       </c>
@@ -7809,44 +7811,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
-        <v>436</v>
+        <v>789</v>
       </c>
       <c r="B189" s="4">
-        <v>45599</v>
+        <v>45631</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>104</v>
+        <v>235</v>
       </c>
       <c r="E189" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F189" s="3">
         <v>2</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="H189" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
-        <v>437</v>
+        <v>799</v>
       </c>
       <c r="B190" s="4">
-        <v>45507</v>
-      </c>
-      <c r="C190" s="4">
-        <v>45599</v>
+        <v>45573</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="E190" s="3">
         <v>1</v>
@@ -7855,13 +7857,13 @@
         <v>2</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="H190" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>438</v>
       </c>
@@ -7887,7 +7889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>439</v>
       </c>
@@ -7913,7 +7915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>440</v>
       </c>
@@ -7939,7 +7941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>441</v>
       </c>
@@ -7965,18 +7967,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
-        <v>442</v>
+        <v>255</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>114</v>
+        <v>20</v>
+      </c>
+      <c r="D195" s="4">
+        <v>45383</v>
       </c>
       <c r="E195" s="3">
         <v>2</v>
@@ -7985,13 +7987,13 @@
         <v>2</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H195" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>443</v>
       </c>
@@ -8017,7 +8019,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>444</v>
       </c>
@@ -8043,7 +8045,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>445</v>
       </c>
@@ -8069,7 +8071,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>446</v>
       </c>
@@ -8095,7 +8097,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>447</v>
       </c>
@@ -8121,7 +8123,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>448</v>
       </c>
@@ -8147,18 +8149,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>111</v>
+        <v>264</v>
+      </c>
+      <c r="B202" s="4">
+        <v>45058</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>120</v>
+        <v>24</v>
+      </c>
+      <c r="D202" s="4">
+        <v>45505</v>
       </c>
       <c r="E202" s="3">
         <v>2</v>
@@ -8167,13 +8169,13 @@
         <v>2</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H202" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>450</v>
       </c>
@@ -8199,7 +8201,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>451</v>
       </c>
@@ -8225,7 +8227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>452</v>
       </c>
@@ -8251,7 +8253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>453</v>
       </c>
@@ -8277,7 +8279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>454</v>
       </c>
@@ -8303,7 +8305,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>455</v>
       </c>
@@ -8329,7 +8331,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>456</v>
       </c>
@@ -8355,7 +8357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>457</v>
       </c>
@@ -8381,7 +8383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>458</v>
       </c>
@@ -8407,7 +8409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>459</v>
       </c>
@@ -8433,7 +8435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>460</v>
       </c>
@@ -8459,7 +8461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>461</v>
       </c>
@@ -8485,7 +8487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>462</v>
       </c>
@@ -8511,7 +8513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>463</v>
       </c>
@@ -8537,7 +8539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>464</v>
       </c>
@@ -8563,7 +8565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>465</v>
       </c>
@@ -8589,7 +8591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>466</v>
       </c>
@@ -8615,7 +8617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>467</v>
       </c>
@@ -8641,7 +8643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>468</v>
       </c>
@@ -8667,18 +8669,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
-        <v>469</v>
+        <v>266</v>
       </c>
       <c r="B222" s="4">
-        <v>45295</v>
-      </c>
-      <c r="C222" s="4">
-        <v>45326</v>
+        <v>45119</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D222" s="4">
-        <v>45386</v>
+        <v>45505</v>
       </c>
       <c r="E222" s="3">
         <v>2</v>
@@ -8687,24 +8689,24 @@
         <v>2</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="H222" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
-        <v>470</v>
+        <v>267</v>
       </c>
       <c r="B223" s="4">
-        <v>45295</v>
+        <v>45058</v>
       </c>
       <c r="C223" s="4">
-        <v>45326</v>
+        <v>45242</v>
       </c>
       <c r="D223" s="4">
-        <v>45386</v>
+        <v>45505</v>
       </c>
       <c r="E223" s="3">
         <v>2</v>
@@ -8713,24 +8715,24 @@
         <v>2</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="H223" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C224" s="4">
-        <v>45295</v>
+        <v>268</v>
+      </c>
+      <c r="B224" s="4">
+        <v>45211</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D224" s="4">
-        <v>45386</v>
+        <v>45505</v>
       </c>
       <c r="E224" s="3">
         <v>2</v>
@@ -8745,70 +8747,70 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
-        <v>472</v>
+        <v>293</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C225" s="4">
-        <v>45295</v>
-      </c>
-      <c r="D225" s="4">
-        <v>45386</v>
+        <v>37</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E225" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F225" s="3">
         <v>2</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H225" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
-        <v>473</v>
+        <v>296</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D226" s="4">
-        <v>45386</v>
+        <v>39</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E226" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F226" s="3">
         <v>2</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="H226" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
-        <v>474</v>
+        <v>297</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D227" s="4">
-        <v>45386</v>
+        <v>42</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="E227" s="3">
         <v>2</v>
@@ -8817,76 +8819,76 @@
         <v>2</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="H227" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
-        <v>475</v>
+        <v>300</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D228" s="4">
-        <v>45386</v>
+        <v>62</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E228" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F228" s="3">
         <v>2</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="H228" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>119</v>
+        <v>348</v>
+      </c>
+      <c r="B229" s="4">
+        <v>45567</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D229" s="4">
-        <v>45386</v>
+        <v>71</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E229" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F229" s="3">
         <v>2</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="H229" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>122</v>
+        <v>349</v>
+      </c>
+      <c r="B230" s="4">
+        <v>45567</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D230" s="4">
-        <v>45386</v>
+        <v>73</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E230" s="3">
         <v>2</v>
@@ -8895,24 +8897,24 @@
         <v>2</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="H230" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
-        <v>478</v>
+        <v>364</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D231" s="4">
-        <v>45386</v>
+        <v>82</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E231" s="3">
         <v>2</v>
@@ -8921,24 +8923,24 @@
         <v>2</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="H231" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
-        <v>479</v>
+        <v>365</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D232" s="4">
-        <v>45386</v>
+        <v>85</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E232" s="3">
         <v>2</v>
@@ -8947,50 +8949,50 @@
         <v>2</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="H232" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
-        <v>480</v>
+        <v>366</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D233" s="4">
-        <v>45386</v>
+        <v>85</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="E233" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F233" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="H233" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
-        <v>481</v>
+        <v>388</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C234" s="4">
-        <v>45355</v>
-      </c>
-      <c r="D234" s="4">
-        <v>45386</v>
+        <v>88</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="E234" s="3">
         <v>2</v>
@@ -8999,24 +9001,24 @@
         <v>2</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="H234" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
-        <v>482</v>
+        <v>392</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C235" s="4">
-        <v>45326</v>
-      </c>
-      <c r="D235" s="4">
-        <v>45386</v>
+        <v>88</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="E235" s="3">
         <v>2</v>
@@ -9025,13 +9027,13 @@
         <v>2</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="H235" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
         <v>483</v>
       </c>
@@ -9057,7 +9059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
         <v>484</v>
       </c>
@@ -9083,7 +9085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
         <v>485</v>
       </c>
@@ -9109,7 +9111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
         <v>486</v>
       </c>
@@ -9135,18 +9137,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B240" s="4">
-        <v>45326</v>
-      </c>
-      <c r="C240" s="4">
-        <v>45416</v>
+        <v>393</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="D240" s="4">
-        <v>45416</v>
+        <v>45294</v>
       </c>
       <c r="E240" s="3">
         <v>2</v>
@@ -9155,13 +9157,13 @@
         <v>2</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="H240" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
         <v>488</v>
       </c>
@@ -9187,7 +9189,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
         <v>489</v>
       </c>
@@ -9213,7 +9215,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
         <v>490</v>
       </c>
@@ -9239,7 +9241,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
         <v>491</v>
       </c>
@@ -9265,7 +9267,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
         <v>492</v>
       </c>
@@ -9291,7 +9293,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
         <v>493</v>
       </c>
@@ -9317,7 +9319,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
         <v>494</v>
       </c>
@@ -9343,7 +9345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
         <v>495</v>
       </c>
@@ -9369,7 +9371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
         <v>496</v>
       </c>
@@ -9395,7 +9397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
         <v>497</v>
       </c>
@@ -9421,7 +9423,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
         <v>498</v>
       </c>
@@ -9447,7 +9449,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
         <v>499</v>
       </c>
@@ -9473,7 +9475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
         <v>500</v>
       </c>
@@ -9499,7 +9501,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
         <v>501</v>
       </c>
@@ -9525,7 +9527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
         <v>502</v>
       </c>
@@ -9551,7 +9553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
         <v>503</v>
       </c>
@@ -9577,18 +9579,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
-        <v>504</v>
+        <v>401</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="C257" s="4">
-        <v>45295</v>
+        <v>45354</v>
       </c>
       <c r="D257" s="4">
-        <v>45386</v>
+        <v>45385</v>
       </c>
       <c r="E257" s="3">
         <v>2</v>
@@ -9597,13 +9599,13 @@
         <v>2</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H257" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
         <v>505</v>
       </c>
@@ -9629,7 +9631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
         <v>506</v>
       </c>
@@ -9655,7 +9657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
         <v>507</v>
       </c>
@@ -9681,44 +9683,44 @@
         <v>34</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>104</v>
+        <v>419</v>
+      </c>
+      <c r="B261" s="4">
+        <v>45354</v>
+      </c>
+      <c r="C261" s="4">
+        <v>45476</v>
       </c>
       <c r="D261" s="4">
-        <v>45600</v>
+        <v>45476</v>
       </c>
       <c r="E261" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F261" s="3">
         <v>2</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="H261" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="B262" s="4">
-        <v>45295</v>
+        <v>420</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C262" s="4">
-        <v>45386</v>
+        <v>45294</v>
       </c>
       <c r="D262" s="4">
-        <v>45600</v>
+        <v>45476</v>
       </c>
       <c r="E262" s="3">
         <v>2</v>
@@ -9733,7 +9735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
         <v>510</v>
       </c>
@@ -9759,7 +9761,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
         <v>511</v>
       </c>
@@ -9785,7 +9787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
         <v>512</v>
       </c>
@@ -9811,7 +9813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
         <v>513</v>
       </c>
@@ -9837,7 +9839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
         <v>514</v>
       </c>
@@ -9863,7 +9865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
         <v>515</v>
       </c>
@@ -9889,7 +9891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
         <v>516</v>
       </c>
@@ -9915,7 +9917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
         <v>517</v>
       </c>
@@ -9941,7 +9943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>518</v>
       </c>
@@ -9967,7 +9969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
         <v>519</v>
       </c>
@@ -9993,33 +9995,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
-        <v>520</v>
+        <v>421</v>
       </c>
       <c r="B273" s="4">
-        <v>45600</v>
+        <v>45354</v>
       </c>
       <c r="C273" s="4">
-        <v>45630</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>137</v>
+        <v>45446</v>
+      </c>
+      <c r="D273" s="4">
+        <v>45476</v>
       </c>
       <c r="E273" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F273" s="3">
         <v>2</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="H273" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
         <v>521</v>
       </c>
@@ -10045,18 +10047,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
-        <v>522</v>
+        <v>425</v>
       </c>
       <c r="B275" s="4">
-        <v>45600</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>139</v>
+        <v>45325</v>
+      </c>
+      <c r="C275" s="4">
+        <v>45415</v>
+      </c>
+      <c r="D275" s="4">
+        <v>45538</v>
       </c>
       <c r="E275" s="3">
         <v>2</v>
@@ -10065,24 +10067,24 @@
         <v>2</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="H275" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
-        <v>523</v>
+        <v>426</v>
       </c>
       <c r="B276" s="4">
-        <v>45569</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>139</v>
+        <v>45415</v>
+      </c>
+      <c r="C276" s="4">
+        <v>45446</v>
+      </c>
+      <c r="D276" s="4">
+        <v>45538</v>
       </c>
       <c r="E276" s="3">
         <v>2</v>
@@ -10091,13 +10093,13 @@
         <v>2</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="H276" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
         <v>524</v>
       </c>
@@ -10123,7 +10125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
         <v>525</v>
       </c>
@@ -10149,7 +10151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
         <v>526</v>
       </c>
@@ -10175,7 +10177,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
         <v>527</v>
       </c>
@@ -10201,18 +10203,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>139</v>
+        <v>436</v>
+      </c>
+      <c r="B281" s="4">
+        <v>45599</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="E281" s="3">
         <v>2</v>
@@ -10221,24 +10223,24 @@
         <v>2</v>
       </c>
       <c r="G281" s="3" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="H281" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
-        <v>529</v>
+        <v>442</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="E282" s="3">
         <v>2</v>
@@ -10247,24 +10249,24 @@
         <v>2</v>
       </c>
       <c r="G282" s="3" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="H282" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
-        <v>530</v>
+        <v>449</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E283" s="3">
         <v>2</v>
@@ -10273,13 +10275,13 @@
         <v>2</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="H283" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
         <v>531</v>
       </c>
@@ -10305,96 +10307,96 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>142</v>
+        <v>469</v>
+      </c>
+      <c r="B285" s="4">
+        <v>45295</v>
+      </c>
+      <c r="C285" s="4">
+        <v>45326</v>
+      </c>
+      <c r="D285" s="4">
+        <v>45386</v>
       </c>
       <c r="E285" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F285" s="3">
         <v>2</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="H285" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
-        <v>533</v>
+        <v>470</v>
       </c>
       <c r="B286" s="4">
-        <v>45477</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>143</v>
+        <v>45295</v>
+      </c>
+      <c r="C286" s="4">
+        <v>45326</v>
+      </c>
+      <c r="D286" s="4">
+        <v>45386</v>
       </c>
       <c r="E286" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F286" s="3">
         <v>2</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H286" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
-        <v>534</v>
+        <v>471</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>147</v>
+        <v>118</v>
+      </c>
+      <c r="C287" s="4">
+        <v>45295</v>
+      </c>
+      <c r="D287" s="4">
+        <v>45386</v>
       </c>
       <c r="E287" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F287" s="3">
         <v>2</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="H287" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
-        <v>535</v>
+        <v>474</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>147</v>
+        <v>130</v>
+      </c>
+      <c r="D288" s="4">
+        <v>45386</v>
       </c>
       <c r="E288" s="3">
         <v>2</v>
@@ -10409,18 +10411,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
-        <v>536</v>
+        <v>477</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
+      </c>
+      <c r="D289" s="4">
+        <v>45386</v>
       </c>
       <c r="E289" s="3">
         <v>2</v>
@@ -10435,18 +10437,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="B290" s="4">
-        <v>45630</v>
+        <v>478</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>147</v>
+        <v>117</v>
+      </c>
+      <c r="D290" s="4">
+        <v>45386</v>
       </c>
       <c r="E290" s="3">
         <v>2</v>
@@ -10461,21 +10463,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
-        <v>538</v>
+        <v>479</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>147</v>
+        <v>120</v>
+      </c>
+      <c r="D291" s="4">
+        <v>45386</v>
       </c>
       <c r="E291" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F291" s="3">
         <v>2</v>
@@ -10487,18 +10489,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
-        <v>539</v>
+        <v>481</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
+      </c>
+      <c r="C292" s="4">
+        <v>45355</v>
+      </c>
+      <c r="D292" s="4">
+        <v>45386</v>
       </c>
       <c r="E292" s="3">
         <v>2</v>
@@ -10507,24 +10509,24 @@
         <v>2</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H292" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
-        <v>540</v>
+        <v>482</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>147</v>
+        <v>130</v>
+      </c>
+      <c r="C293" s="4">
+        <v>45326</v>
+      </c>
+      <c r="D293" s="4">
+        <v>45386</v>
       </c>
       <c r="E293" s="3">
         <v>2</v>
@@ -10533,39 +10535,39 @@
         <v>2</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H293" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="B294" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>147</v>
+        <v>487</v>
+      </c>
+      <c r="B294" s="4">
+        <v>45326</v>
+      </c>
+      <c r="C294" s="4">
+        <v>45416</v>
+      </c>
+      <c r="D294" s="4">
+        <v>45416</v>
       </c>
       <c r="E294" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F294" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G294" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H294" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
         <v>542</v>
       </c>
@@ -10591,7 +10593,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
         <v>543</v>
       </c>
@@ -10617,33 +10619,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D297" s="3" t="s">
-        <v>155</v>
+        <v>117</v>
+      </c>
+      <c r="C297" s="4">
+        <v>45295</v>
+      </c>
+      <c r="D297" s="4">
+        <v>45386</v>
       </c>
       <c r="E297" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F297" s="3">
         <v>2</v>
       </c>
       <c r="G297" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H297" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
         <v>545</v>
       </c>
@@ -10669,7 +10671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
         <v>546</v>
       </c>
@@ -10695,7 +10697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
         <v>547</v>
       </c>
@@ -10721,7 +10723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
         <v>548</v>
       </c>
@@ -10747,7 +10749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
         <v>549</v>
       </c>
@@ -10773,7 +10775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
         <v>550</v>
       </c>
@@ -10799,18 +10801,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>159</v>
+        <v>509</v>
+      </c>
+      <c r="B304" s="4">
+        <v>45295</v>
+      </c>
+      <c r="C304" s="4">
+        <v>45386</v>
+      </c>
+      <c r="D304" s="4">
+        <v>45600</v>
       </c>
       <c r="E304" s="3">
         <v>2</v>
@@ -10819,13 +10821,13 @@
         <v>2</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="H304" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
         <v>552</v>
       </c>
@@ -10851,7 +10853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="3" t="s">
         <v>553</v>
       </c>
@@ -10877,7 +10879,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="3" t="s">
         <v>554</v>
       </c>
@@ -10903,44 +10905,44 @@
         <v>49</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="B308" s="3" t="s">
-        <v>157</v>
+        <v>522</v>
+      </c>
+      <c r="B308" s="4">
+        <v>45600</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="E308" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F308" s="3">
         <v>2</v>
       </c>
       <c r="G308" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H308" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C309" s="4">
-        <v>45328</v>
-      </c>
-      <c r="D309" s="4">
-        <v>45357</v>
+        <v>523</v>
+      </c>
+      <c r="B309" s="4">
+        <v>45569</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E309" s="3">
         <v>2</v>
@@ -10949,13 +10951,13 @@
         <v>2</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="H309" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="3" t="s">
         <v>557</v>
       </c>
@@ -10981,7 +10983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="3" t="s">
         <v>558</v>
       </c>
@@ -11007,18 +11009,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="B312" s="4">
-        <v>45328</v>
-      </c>
-      <c r="C312" s="4">
-        <v>45357</v>
-      </c>
-      <c r="D312" s="4">
-        <v>45388</v>
+        <v>528</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="E312" s="3">
         <v>2</v>
@@ -11027,24 +11029,24 @@
         <v>2</v>
       </c>
       <c r="G312" s="3" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="H312" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="B313" s="4">
-        <v>45328</v>
-      </c>
-      <c r="C313" s="4">
-        <v>45357</v>
-      </c>
-      <c r="D313" s="4">
-        <v>45388</v>
+        <v>529</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="E313" s="3">
         <v>2</v>
@@ -11053,13 +11055,13 @@
         <v>2</v>
       </c>
       <c r="G313" s="3" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="H313" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" s="3" t="s">
         <v>561</v>
       </c>
@@ -11085,7 +11087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="3" t="s">
         <v>562</v>
       </c>
@@ -11111,7 +11113,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" s="3" t="s">
         <v>563</v>
       </c>
@@ -11137,7 +11139,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="3" t="s">
         <v>564</v>
       </c>
@@ -11163,18 +11165,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" s="3" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D318" s="4">
-        <v>45449</v>
+        <v>135</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="E318" s="3">
         <v>2</v>
@@ -11183,50 +11185,50 @@
         <v>2</v>
       </c>
       <c r="G318" s="3" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="H318" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" s="3" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D319" s="4">
-        <v>45449</v>
+        <v>139</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="E319" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F319" s="3">
         <v>2</v>
       </c>
       <c r="G319" s="3" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="H319" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" s="3" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D320" s="4">
-        <v>45449</v>
+        <v>137</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="E320" s="3">
         <v>2</v>
@@ -11235,24 +11237,24 @@
         <v>2</v>
       </c>
       <c r="G320" s="3" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="H320" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321" s="3" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="B321" s="4">
-        <v>45328</v>
-      </c>
-      <c r="C321" s="4">
-        <v>45449</v>
-      </c>
-      <c r="D321" s="4">
-        <v>45602</v>
+        <v>45630</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="E321" s="3">
         <v>2</v>
@@ -11261,24 +11263,24 @@
         <v>2</v>
       </c>
       <c r="G321" s="3" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="H321" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="B322" s="4">
-        <v>45479</v>
-      </c>
-      <c r="C322" s="4">
-        <v>45510</v>
-      </c>
-      <c r="D322" s="4">
-        <v>45571</v>
+        <v>539</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="E322" s="3">
         <v>2</v>
@@ -11287,13 +11289,13 @@
         <v>2</v>
       </c>
       <c r="G322" s="3" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="H322" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="3" t="s">
         <v>570</v>
       </c>
@@ -11319,7 +11321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="3" t="s">
         <v>571</v>
       </c>
@@ -11345,7 +11347,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="3" t="s">
         <v>572</v>
       </c>
@@ -11371,7 +11373,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="3" t="s">
         <v>573</v>
       </c>
@@ -11397,7 +11399,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" s="3" t="s">
         <v>574</v>
       </c>
@@ -11423,7 +11425,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="3" t="s">
         <v>575</v>
       </c>
@@ -11449,7 +11451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="3" t="s">
         <v>576</v>
       </c>
@@ -11475,7 +11477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
         <v>577</v>
       </c>
@@ -11501,7 +11503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="3" t="s">
         <v>578</v>
       </c>
@@ -11527,18 +11529,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332" s="3" t="s">
-        <v>579</v>
+        <v>540</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C332" s="4">
-        <v>45297</v>
+        <v>140</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="E332" s="3">
         <v>2</v>
@@ -11547,13 +11549,13 @@
         <v>2</v>
       </c>
       <c r="G332" s="3" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="H332" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" s="3" t="s">
         <v>580</v>
       </c>
@@ -11579,7 +11581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="3" t="s">
         <v>581</v>
       </c>
@@ -11605,7 +11607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="3" t="s">
         <v>582</v>
       </c>
@@ -11631,7 +11633,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="3" t="s">
         <v>583</v>
       </c>
@@ -11657,7 +11659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="3" t="s">
         <v>584</v>
       </c>
@@ -11683,7 +11685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="3" t="s">
         <v>585</v>
       </c>
@@ -11709,7 +11711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="3" t="s">
         <v>586</v>
       </c>
@@ -11735,7 +11737,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="3" t="s">
         <v>587</v>
       </c>
@@ -11761,7 +11763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="3" t="s">
         <v>588</v>
       </c>
@@ -11787,7 +11789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="3" t="s">
         <v>589</v>
       </c>
@@ -11813,7 +11815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="3" t="s">
         <v>590</v>
       </c>
@@ -11839,7 +11841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="3" t="s">
         <v>591</v>
       </c>
@@ -11865,7 +11867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="3" t="s">
         <v>592</v>
       </c>
@@ -11891,7 +11893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="3" t="s">
         <v>593</v>
       </c>
@@ -11917,7 +11919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="3" t="s">
         <v>594</v>
       </c>
@@ -11943,7 +11945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="3" t="s">
         <v>595</v>
       </c>
@@ -11969,33 +11971,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349" s="3" t="s">
-        <v>596</v>
+        <v>551</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E349" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F349" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G349" s="3" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="H349" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="3" t="s">
         <v>597</v>
       </c>
@@ -12021,33 +12023,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351" s="3" t="s">
-        <v>598</v>
+        <v>556</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D351" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
+      </c>
+      <c r="C351" s="4">
+        <v>45328</v>
+      </c>
+      <c r="D351" s="4">
+        <v>45357</v>
       </c>
       <c r="E351" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F351" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G351" s="3" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="H351" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="3" t="s">
         <v>599</v>
       </c>
@@ -12073,7 +12075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="3" t="s">
         <v>600</v>
       </c>
@@ -12099,7 +12101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="3" t="s">
         <v>601</v>
       </c>
@@ -12125,7 +12127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" s="3" t="s">
         <v>602</v>
       </c>
@@ -12151,7 +12153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="3" t="s">
         <v>603</v>
       </c>
@@ -12177,7 +12179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="3" t="s">
         <v>604</v>
       </c>
@@ -12203,7 +12205,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="3" t="s">
         <v>605</v>
       </c>
@@ -12229,7 +12231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="3" t="s">
         <v>606</v>
       </c>
@@ -12255,215 +12257,215 @@
         <v>100</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" s="3" t="s">
-        <v>607</v>
+        <v>559</v>
       </c>
       <c r="B360" s="4">
-        <v>45630</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>147</v>
+        <v>45328</v>
+      </c>
+      <c r="C360" s="4">
+        <v>45357</v>
+      </c>
+      <c r="D360" s="4">
+        <v>45388</v>
       </c>
       <c r="E360" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F360" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G360" s="3" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="H360" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361" s="3" t="s">
-        <v>608</v>
+        <v>560</v>
       </c>
       <c r="B361" s="4">
-        <v>45630</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D361" s="3" t="s">
-        <v>147</v>
+        <v>45328</v>
+      </c>
+      <c r="C361" s="4">
+        <v>45357</v>
+      </c>
+      <c r="D361" s="4">
+        <v>45388</v>
       </c>
       <c r="E361" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F361" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G361" s="3" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="H361" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362" s="3" t="s">
-        <v>609</v>
+        <v>565</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>147</v>
+        <v>165</v>
+      </c>
+      <c r="D362" s="4">
+        <v>45449</v>
       </c>
       <c r="E362" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F362" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="H362" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363" s="3" t="s">
-        <v>610</v>
+        <v>567</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
+      </c>
+      <c r="D363" s="4">
+        <v>45449</v>
       </c>
       <c r="E363" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F363" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G363" s="3" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="H363" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="B364" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D364" s="3" t="s">
-        <v>147</v>
+        <v>568</v>
+      </c>
+      <c r="B364" s="4">
+        <v>45328</v>
+      </c>
+      <c r="C364" s="4">
+        <v>45449</v>
+      </c>
+      <c r="D364" s="4">
+        <v>45602</v>
       </c>
       <c r="E364" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F364" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="H364" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="B365" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D365" s="3" t="s">
-        <v>147</v>
+        <v>569</v>
+      </c>
+      <c r="B365" s="4">
+        <v>45479</v>
+      </c>
+      <c r="C365" s="4">
+        <v>45510</v>
+      </c>
+      <c r="D365" s="4">
+        <v>45571</v>
       </c>
       <c r="E365" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F365" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G365" s="3" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="H365" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366" s="3" t="s">
-        <v>613</v>
+        <v>579</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>142</v>
+        <v>164</v>
+      </c>
+      <c r="C366" s="4">
+        <v>45297</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="E366" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F366" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="H366" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367" s="3" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="E367" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F367" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G367" s="3" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="H367" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="3" t="s">
         <v>615</v>
       </c>
@@ -12489,7 +12491,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="3" t="s">
         <v>616</v>
       </c>
@@ -12515,7 +12517,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" s="3" t="s">
         <v>617</v>
       </c>
@@ -12541,18 +12543,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371" s="3" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D371" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
+      </c>
+      <c r="D371" s="4">
+        <v>45356</v>
       </c>
       <c r="E371" s="3">
         <v>2</v>
@@ -12561,65 +12563,65 @@
         <v>2</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="H371" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372" s="3" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C372" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D372" s="3" t="s">
-        <v>194</v>
+        <v>201</v>
+      </c>
+      <c r="C372" s="4">
+        <v>45327</v>
+      </c>
+      <c r="D372" s="4">
+        <v>45448</v>
       </c>
       <c r="E372" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F372" s="3">
         <v>2</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H372" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="B373" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D373" s="3" t="s">
-        <v>194</v>
+        <v>638</v>
+      </c>
+      <c r="B373" s="4">
+        <v>45327</v>
+      </c>
+      <c r="C373" s="4">
+        <v>45387</v>
+      </c>
+      <c r="D373" s="4">
+        <v>45448</v>
       </c>
       <c r="E373" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F373" s="3">
         <v>2</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="H373" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="3" t="s">
         <v>621</v>
       </c>
@@ -12645,7 +12647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" s="3" t="s">
         <v>622</v>
       </c>
@@ -12671,7 +12673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" s="3" t="s">
         <v>623</v>
       </c>
@@ -12697,7 +12699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" s="3" t="s">
         <v>624</v>
       </c>
@@ -12723,7 +12725,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" s="3" t="s">
         <v>625</v>
       </c>
@@ -12749,7 +12751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" s="3" t="s">
         <v>626</v>
       </c>
@@ -12775,7 +12777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" s="3" t="s">
         <v>627</v>
       </c>
@@ -12801,7 +12803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" s="3" t="s">
         <v>628</v>
       </c>
@@ -12827,7 +12829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" s="3" t="s">
         <v>629</v>
       </c>
@@ -12853,7 +12855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" s="3" t="s">
         <v>630</v>
       </c>
@@ -12879,7 +12881,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" s="3" t="s">
         <v>631</v>
       </c>
@@ -12905,7 +12907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" s="3" t="s">
         <v>632</v>
       </c>
@@ -12931,7 +12933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" s="3" t="s">
         <v>633</v>
       </c>
@@ -12957,33 +12959,33 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A387" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="B387" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C387" s="3" t="s">
-        <v>200</v>
+        <v>648</v>
+      </c>
+      <c r="B387" s="4">
+        <v>45417</v>
+      </c>
+      <c r="C387" s="4">
+        <v>45540</v>
       </c>
       <c r="D387" s="4">
-        <v>45327</v>
+        <v>45570</v>
       </c>
       <c r="E387" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F387" s="3">
         <v>2</v>
       </c>
       <c r="G387" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="H387" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" s="3" t="s">
         <v>635</v>
       </c>
@@ -13009,18 +13011,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389" s="3" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D389" s="4">
-        <v>45356</v>
+        <v>154</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="E389" s="3">
         <v>2</v>
@@ -13029,24 +13031,24 @@
         <v>2</v>
       </c>
       <c r="G389" s="3" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="H389" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="B390" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C390" s="4">
-        <v>45327</v>
-      </c>
-      <c r="D390" s="4">
-        <v>45448</v>
+        <v>665</v>
+      </c>
+      <c r="B390" s="4">
+        <v>45570</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="E390" s="3">
         <v>2</v>
@@ -13055,24 +13057,24 @@
         <v>2</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="H390" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="B391" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C391" s="4">
-        <v>45387</v>
+        <v>683</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="D391" s="4">
-        <v>45448</v>
+        <v>45419</v>
       </c>
       <c r="E391" s="3">
         <v>2</v>
@@ -13081,13 +13083,13 @@
         <v>2</v>
       </c>
       <c r="G391" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="H391" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" s="3" t="s">
         <v>639</v>
       </c>
@@ -13113,7 +13115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" s="3" t="s">
         <v>640</v>
       </c>
@@ -13139,7 +13141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" s="3" t="s">
         <v>641</v>
       </c>
@@ -13165,7 +13167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" s="3" t="s">
         <v>642</v>
       </c>
@@ -13191,7 +13193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" s="3" t="s">
         <v>643</v>
       </c>
@@ -13217,7 +13219,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" s="3" t="s">
         <v>644</v>
       </c>
@@ -13243,7 +13245,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" s="3" t="s">
         <v>645</v>
       </c>
@@ -13269,7 +13271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" s="3" t="s">
         <v>646</v>
       </c>
@@ -13295,7 +13297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" s="3" t="s">
         <v>647</v>
       </c>
@@ -13321,33 +13323,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="B401" s="4">
-        <v>45417</v>
-      </c>
-      <c r="C401" s="4">
-        <v>45540</v>
+        <v>684</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D401" s="4">
-        <v>45570</v>
+        <v>45419</v>
       </c>
       <c r="E401" s="3">
         <v>2</v>
       </c>
       <c r="F401" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H401" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" s="3" t="s">
         <v>649</v>
       </c>
@@ -13373,7 +13375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" s="3" t="s">
         <v>650</v>
       </c>
@@ -13399,7 +13401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" s="3" t="s">
         <v>651</v>
       </c>
@@ -13425,7 +13427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" s="3" t="s">
         <v>652</v>
       </c>
@@ -13451,7 +13453,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" s="3" t="s">
         <v>653</v>
       </c>
@@ -13477,7 +13479,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" s="3" t="s">
         <v>654</v>
       </c>
@@ -13503,7 +13505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" s="3" t="s">
         <v>655</v>
       </c>
@@ -13529,7 +13531,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" s="3" t="s">
         <v>656</v>
       </c>
@@ -13555,7 +13557,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" s="3" t="s">
         <v>657</v>
       </c>
@@ -13581,7 +13583,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" s="3" t="s">
         <v>658</v>
       </c>
@@ -13607,7 +13609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" s="3" t="s">
         <v>659</v>
       </c>
@@ -13633,7 +13635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="3" t="s">
         <v>660</v>
       </c>
@@ -13659,7 +13661,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" s="3" t="s">
         <v>661</v>
       </c>
@@ -13685,7 +13687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" s="3" t="s">
         <v>662</v>
       </c>
@@ -13711,7 +13713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" s="3" t="s">
         <v>663</v>
       </c>
@@ -13737,18 +13739,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A417" s="3" t="s">
-        <v>664</v>
+        <v>685</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D417" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
+      </c>
+      <c r="D417" s="4">
+        <v>45419</v>
       </c>
       <c r="E417" s="3">
         <v>2</v>
@@ -13757,24 +13759,24 @@
         <v>2</v>
       </c>
       <c r="G417" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="H417" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A418" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="B418" s="4">
-        <v>45570</v>
+        <v>699</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D418" s="3" t="s">
-        <v>205</v>
+        <v>190</v>
+      </c>
+      <c r="D418" s="4">
+        <v>45572</v>
       </c>
       <c r="E418" s="3">
         <v>2</v>
@@ -13783,65 +13785,65 @@
         <v>2</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="H418" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A419" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="B419" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C419" s="3" t="s">
-        <v>152</v>
+        <v>702</v>
+      </c>
+      <c r="B419" s="4">
+        <v>45480</v>
+      </c>
+      <c r="C419" s="4">
+        <v>45603</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E419" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F419" s="3">
         <v>2</v>
       </c>
       <c r="G419" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H419" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A420" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="B420" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C420" s="3" t="s">
-        <v>149</v>
+        <v>713</v>
+      </c>
+      <c r="B420" s="4">
+        <v>45358</v>
+      </c>
+      <c r="C420" s="4">
+        <v>45633</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="E420" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F420" s="3">
         <v>2</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="H420" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" s="3" t="s">
         <v>668</v>
       </c>
@@ -13867,7 +13869,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" s="3" t="s">
         <v>669</v>
       </c>
@@ -13893,7 +13895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" s="3" t="s">
         <v>670</v>
       </c>
@@ -13919,7 +13921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" s="3" t="s">
         <v>671</v>
       </c>
@@ -13945,7 +13947,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" s="3" t="s">
         <v>672</v>
       </c>
@@ -13971,7 +13973,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" s="3" t="s">
         <v>673</v>
       </c>
@@ -13997,7 +13999,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" s="3" t="s">
         <v>674</v>
       </c>
@@ -14023,7 +14025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" s="3" t="s">
         <v>675</v>
       </c>
@@ -14049,7 +14051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" s="3" t="s">
         <v>676</v>
       </c>
@@ -14075,7 +14077,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" s="3" t="s">
         <v>677</v>
       </c>
@@ -14101,7 +14103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" s="3" t="s">
         <v>678</v>
       </c>
@@ -14127,7 +14129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" s="3" t="s">
         <v>679</v>
       </c>
@@ -14153,7 +14155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" s="3" t="s">
         <v>680</v>
       </c>
@@ -14179,7 +14181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434" s="3" t="s">
         <v>681</v>
       </c>
@@ -14205,7 +14207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435" s="3" t="s">
         <v>682</v>
       </c>
@@ -14231,18 +14233,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A436" s="3" t="s">
-        <v>683</v>
+        <v>714</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D436" s="4">
-        <v>45419</v>
+        <v>216</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="E436" s="3">
         <v>2</v>
@@ -14257,24 +14259,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A437" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="B437" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C437" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D437" s="4">
+        <v>715</v>
+      </c>
+      <c r="B437" s="4">
         <v>45419</v>
       </c>
+      <c r="C437" s="4">
+        <v>45511</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="E437" s="3">
         <v>2</v>
       </c>
       <c r="F437" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G437" s="3" t="s">
         <v>25</v>
@@ -14283,18 +14285,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A438" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="B438" s="3" t="s">
-        <v>181</v>
+        <v>741</v>
+      </c>
+      <c r="B438" s="4">
+        <v>45603</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="D438" s="4">
-        <v>45419</v>
+        <v>45451</v>
       </c>
       <c r="E438" s="3">
         <v>2</v>
@@ -14309,7 +14311,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" s="3" t="s">
         <v>686</v>
       </c>
@@ -14335,7 +14337,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" s="3" t="s">
         <v>687</v>
       </c>
@@ -14361,7 +14363,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" s="3" t="s">
         <v>688</v>
       </c>
@@ -14387,7 +14389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" s="3" t="s">
         <v>689</v>
       </c>
@@ -14413,7 +14415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" s="3" t="s">
         <v>690</v>
       </c>
@@ -14439,7 +14441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" s="3" t="s">
         <v>691</v>
       </c>
@@ -14465,7 +14467,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" s="3" t="s">
         <v>692</v>
       </c>
@@ -14491,7 +14493,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" s="3" t="s">
         <v>693</v>
       </c>
@@ -14517,7 +14519,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" s="3" t="s">
         <v>694</v>
       </c>
@@ -14543,7 +14545,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" s="3" t="s">
         <v>695</v>
       </c>
@@ -14569,7 +14571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" s="3" t="s">
         <v>696</v>
       </c>
@@ -14595,7 +14597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" s="3" t="s">
         <v>697</v>
       </c>
@@ -14621,7 +14623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" s="3" t="s">
         <v>698</v>
       </c>
@@ -14647,24 +14649,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A452" s="3" t="s">
-        <v>699</v>
+        <v>742</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="D452" s="4">
-        <v>45572</v>
+        <v>45420</v>
       </c>
       <c r="E452" s="3">
         <v>2</v>
       </c>
       <c r="F452" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G452" s="3" t="s">
         <v>25</v>
@@ -14673,7 +14675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" s="3" t="s">
         <v>700</v>
       </c>
@@ -14699,7 +14701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454" s="3" t="s">
         <v>701</v>
       </c>
@@ -14725,18 +14727,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A455" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="B455" s="4">
-        <v>45480</v>
-      </c>
-      <c r="C455" s="4">
-        <v>45603</v>
-      </c>
-      <c r="D455" s="3" t="s">
-        <v>211</v>
+        <v>743</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D455" s="4">
+        <v>45420</v>
       </c>
       <c r="E455" s="3">
         <v>2</v>
@@ -14745,13 +14747,13 @@
         <v>2</v>
       </c>
       <c r="G455" s="3" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="H455" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" s="3" t="s">
         <v>703</v>
       </c>
@@ -14777,7 +14779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" s="3" t="s">
         <v>704</v>
       </c>
@@ -14803,7 +14805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" s="3" t="s">
         <v>705</v>
       </c>
@@ -14829,7 +14831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" s="3" t="s">
         <v>706</v>
       </c>
@@ -14855,7 +14857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" s="3" t="s">
         <v>707</v>
       </c>
@@ -14881,7 +14883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" s="3" t="s">
         <v>708</v>
       </c>
@@ -14907,7 +14909,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" s="3" t="s">
         <v>709</v>
       </c>
@@ -14933,7 +14935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" s="3" t="s">
         <v>710</v>
       </c>
@@ -14959,21 +14961,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A464" s="3" t="s">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D464" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
+      </c>
+      <c r="D464" s="4">
+        <v>45420</v>
       </c>
       <c r="E464" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F464" s="3">
         <v>2</v>
@@ -14985,21 +14987,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465" s="3" t="s">
-        <v>712</v>
+        <v>746</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D465" s="3" t="s">
-        <v>220</v>
+        <v>228</v>
+      </c>
+      <c r="D465" s="4">
+        <v>45420</v>
       </c>
       <c r="E465" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F465" s="3">
         <v>2</v>
@@ -15011,18 +15013,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="B466" s="4">
-        <v>45358</v>
-      </c>
-      <c r="C466" s="4">
-        <v>45633</v>
-      </c>
-      <c r="D466" s="3" t="s">
-        <v>220</v>
+        <v>747</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D466" s="4">
+        <v>45420</v>
       </c>
       <c r="E466" s="3">
         <v>2</v>
@@ -15037,18 +15039,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467" s="3" t="s">
-        <v>714</v>
+        <v>748</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D467" s="3" t="s">
-        <v>220</v>
+        <v>228</v>
+      </c>
+      <c r="D467" s="4">
+        <v>45420</v>
       </c>
       <c r="E467" s="3">
         <v>2</v>
@@ -15063,18 +15065,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A468" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="B468" s="4">
-        <v>45419</v>
-      </c>
-      <c r="C468" s="4">
-        <v>45511</v>
-      </c>
-      <c r="D468" s="3" t="s">
-        <v>220</v>
+        <v>749</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D468" s="4">
+        <v>45420</v>
       </c>
       <c r="E468" s="3">
         <v>2</v>
@@ -15089,7 +15091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" s="3" t="s">
         <v>716</v>
       </c>
@@ -15115,7 +15117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" s="3" t="s">
         <v>717</v>
       </c>
@@ -15141,7 +15143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" s="3" t="s">
         <v>718</v>
       </c>
@@ -15167,7 +15169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472" s="3" t="s">
         <v>719</v>
       </c>
@@ -15193,7 +15195,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" s="3" t="s">
         <v>720</v>
       </c>
@@ -15219,7 +15221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" s="3" t="s">
         <v>721</v>
       </c>
@@ -15245,7 +15247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" s="3" t="s">
         <v>722</v>
       </c>
@@ -15271,7 +15273,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" s="3" t="s">
         <v>723</v>
       </c>
@@ -15297,7 +15299,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" s="3" t="s">
         <v>724</v>
       </c>
@@ -15323,7 +15325,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" s="3" t="s">
         <v>725</v>
       </c>
@@ -15349,7 +15351,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479" s="3" t="s">
         <v>726</v>
       </c>
@@ -15375,7 +15377,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" s="3" t="s">
         <v>727</v>
       </c>
@@ -15401,7 +15403,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" s="3" t="s">
         <v>728</v>
       </c>
@@ -15427,7 +15429,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" s="3" t="s">
         <v>729</v>
       </c>
@@ -15453,7 +15455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" s="3" t="s">
         <v>730</v>
       </c>
@@ -15479,7 +15481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" s="3" t="s">
         <v>731</v>
       </c>
@@ -15505,7 +15507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" s="3" t="s">
         <v>732</v>
       </c>
@@ -15531,7 +15533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" s="3" t="s">
         <v>733</v>
       </c>
@@ -15557,7 +15559,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" s="3" t="s">
         <v>734</v>
       </c>
@@ -15583,7 +15585,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" s="3" t="s">
         <v>735</v>
       </c>
@@ -15609,7 +15611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" s="3" t="s">
         <v>736</v>
       </c>
@@ -15635,7 +15637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" s="3" t="s">
         <v>737</v>
       </c>
@@ -15661,7 +15663,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" s="3" t="s">
         <v>738</v>
       </c>
@@ -15687,7 +15689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492" s="3" t="s">
         <v>739</v>
       </c>
@@ -15713,44 +15715,44 @@
         <v>41</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A493" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="B493" s="4">
-        <v>45390</v>
-      </c>
-      <c r="C493" s="4">
+        <v>750</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D493" s="4">
         <v>45420</v>
       </c>
-      <c r="D493" s="4">
-        <v>45451</v>
-      </c>
       <c r="E493" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F493" s="3">
         <v>2</v>
       </c>
       <c r="G493" s="3" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="H493" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A494" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="B494" s="4">
-        <v>45603</v>
+        <v>752</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D494" s="4">
-        <v>45451</v>
+        <v>45420</v>
       </c>
       <c r="E494" s="3">
         <v>2</v>
@@ -15765,15 +15767,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A495" s="3" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D495" s="4">
         <v>45420</v>
@@ -15782,7 +15784,7 @@
         <v>2</v>
       </c>
       <c r="F495" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G495" s="3" t="s">
         <v>25</v>
@@ -15791,18 +15793,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A496" s="3" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C496" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="C496" s="4">
+        <v>45330</v>
       </c>
       <c r="D496" s="4">
-        <v>45420</v>
+        <v>45330</v>
       </c>
       <c r="E496" s="3">
         <v>2</v>
@@ -15817,44 +15819,44 @@
         <v>22</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A497" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="B497" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C497" s="3" t="s">
-        <v>228</v>
+        <v>755</v>
+      </c>
+      <c r="B497" s="4">
+        <v>45420</v>
+      </c>
+      <c r="C497" s="4">
+        <v>45451</v>
       </c>
       <c r="D497" s="4">
-        <v>45420</v>
+        <v>45512</v>
       </c>
       <c r="E497" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F497" s="3">
         <v>2</v>
       </c>
       <c r="G497" s="3" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="H497" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A498" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="B498" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C498" s="3" t="s">
-        <v>223</v>
+        <v>758</v>
+      </c>
+      <c r="B498" s="4">
+        <v>45481</v>
+      </c>
+      <c r="C498" s="4">
+        <v>45573</v>
       </c>
       <c r="D498" s="4">
-        <v>45420</v>
+        <v>45634</v>
       </c>
       <c r="E498" s="3">
         <v>2</v>
@@ -15863,24 +15865,24 @@
         <v>2</v>
       </c>
       <c r="G498" s="3" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="H498" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A499" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="B499" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C499" s="3" t="s">
-        <v>228</v>
+        <v>759</v>
+      </c>
+      <c r="B499" s="4">
+        <v>45420</v>
+      </c>
+      <c r="C499" s="4">
+        <v>45573</v>
       </c>
       <c r="D499" s="4">
-        <v>45420</v>
+        <v>45634</v>
       </c>
       <c r="E499" s="3">
         <v>2</v>
@@ -15889,24 +15891,24 @@
         <v>2</v>
       </c>
       <c r="G499" s="3" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="H499" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A500" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="B500" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>223</v>
+        <v>760</v>
+      </c>
+      <c r="B500" s="4">
+        <v>45420</v>
+      </c>
+      <c r="C500" s="4">
+        <v>45573</v>
       </c>
       <c r="D500" s="4">
-        <v>45420</v>
+        <v>45634</v>
       </c>
       <c r="E500" s="3">
         <v>2</v>
@@ -15915,24 +15917,24 @@
         <v>2</v>
       </c>
       <c r="G500" s="3" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="H500" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A501" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="B501" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C501" s="3" t="s">
-        <v>228</v>
+        <v>761</v>
+      </c>
+      <c r="B501" s="4">
+        <v>45573</v>
+      </c>
+      <c r="C501" s="4">
+        <v>45573</v>
       </c>
       <c r="D501" s="4">
-        <v>45420</v>
+        <v>45634</v>
       </c>
       <c r="E501" s="3">
         <v>2</v>
@@ -15941,24 +15943,24 @@
         <v>2</v>
       </c>
       <c r="G501" s="3" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="H501" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A502" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="B502" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C502" s="3" t="s">
-        <v>230</v>
+        <v>762</v>
+      </c>
+      <c r="B502" s="4">
+        <v>45420</v>
+      </c>
+      <c r="C502" s="4">
+        <v>45573</v>
       </c>
       <c r="D502" s="4">
-        <v>45420</v>
+        <v>45634</v>
       </c>
       <c r="E502" s="3">
         <v>2</v>
@@ -15967,24 +15969,24 @@
         <v>2</v>
       </c>
       <c r="G502" s="3" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="H502" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A503" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="B503" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C503" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D503" s="4">
-        <v>45420</v>
+        <v>764</v>
+      </c>
+      <c r="B503" s="4">
+        <v>45573</v>
+      </c>
+      <c r="C503" s="4">
+        <v>45634</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="E503" s="3">
         <v>2</v>
@@ -15993,13 +15995,13 @@
         <v>2</v>
       </c>
       <c r="G503" s="3" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H503" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504" s="3" t="s">
         <v>751</v>
       </c>
@@ -16025,18 +16027,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A505" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="B505" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C505" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D505" s="4">
-        <v>45420</v>
+        <v>765</v>
+      </c>
+      <c r="B505" s="4">
+        <v>45299</v>
+      </c>
+      <c r="C505" s="4">
+        <v>45512</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="E505" s="3">
         <v>2</v>
@@ -16051,24 +16053,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A506" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="B506" s="3" t="s">
-        <v>231</v>
+        <v>766</v>
+      </c>
+      <c r="B506" s="4">
+        <v>45359</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D506" s="4">
-        <v>45420</v>
+        <v>233</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="E506" s="3">
         <v>2</v>
       </c>
       <c r="F506" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G506" s="3" t="s">
         <v>25</v>
@@ -16077,18 +16079,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A507" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="B507" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C507" s="4">
-        <v>45330</v>
-      </c>
-      <c r="D507" s="4">
-        <v>45330</v>
+        <v>772</v>
+      </c>
+      <c r="B507" s="4">
+        <v>45604</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="E507" s="3">
         <v>2</v>
@@ -16097,24 +16099,24 @@
         <v>2</v>
       </c>
       <c r="G507" s="3" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="H507" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A508" s="3" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
       <c r="B508" s="4">
-        <v>45420</v>
-      </c>
-      <c r="C508" s="4">
-        <v>45451</v>
-      </c>
-      <c r="D508" s="4">
-        <v>45512</v>
+        <v>45573</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="E508" s="3">
         <v>2</v>
@@ -16123,76 +16125,76 @@
         <v>2</v>
       </c>
       <c r="G508" s="3" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="H508" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A509" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="B509" s="4">
-        <v>45420</v>
-      </c>
-      <c r="C509" s="4">
-        <v>45451</v>
-      </c>
-      <c r="D509" s="4">
-        <v>45512</v>
+        <v>779</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="E509" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F509" s="3">
         <v>2</v>
       </c>
       <c r="G509" s="3" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="H509" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A510" s="3" t="s">
-        <v>757</v>
+        <v>797</v>
       </c>
       <c r="B510" s="4">
-        <v>45420</v>
-      </c>
-      <c r="C510" s="4">
-        <v>45481</v>
-      </c>
-      <c r="D510" s="4">
-        <v>45512</v>
+        <v>45573</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="E510" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F510" s="3">
         <v>2</v>
       </c>
       <c r="G510" s="3" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="H510" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A511" s="3" t="s">
-        <v>758</v>
+        <v>801</v>
       </c>
       <c r="B511" s="4">
-        <v>45481</v>
-      </c>
-      <c r="C511" s="4">
-        <v>45573</v>
-      </c>
-      <c r="D511" s="4">
-        <v>45634</v>
+        <v>45451</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="E511" s="3">
         <v>2</v>
@@ -16201,117 +16203,117 @@
         <v>2</v>
       </c>
       <c r="G511" s="3" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="H511" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A512" s="3" t="s">
-        <v>759</v>
+        <v>343</v>
       </c>
       <c r="B512" s="4">
-        <v>45420</v>
-      </c>
-      <c r="C512" s="4">
-        <v>45573</v>
-      </c>
-      <c r="D512" s="4">
-        <v>45634</v>
+        <v>45567</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="E512" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F512" s="3">
         <v>2</v>
       </c>
       <c r="G512" s="3" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="H512" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A513" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="B513" s="4">
-        <v>45420</v>
-      </c>
-      <c r="C513" s="4">
-        <v>45573</v>
-      </c>
-      <c r="D513" s="4">
-        <v>45634</v>
+        <v>386</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="E513" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F513" s="3">
         <v>2</v>
       </c>
       <c r="G513" s="3" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="H513" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A514" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="B514" s="4">
-        <v>45573</v>
+        <v>472</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C514" s="4">
-        <v>45573</v>
+        <v>45295</v>
       </c>
       <c r="D514" s="4">
-        <v>45634</v>
+        <v>45386</v>
       </c>
       <c r="E514" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F514" s="3">
         <v>2</v>
       </c>
       <c r="G514" s="3" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="H514" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A515" s="3" t="s">
-        <v>762</v>
+        <v>533</v>
       </c>
       <c r="B515" s="4">
-        <v>45420</v>
-      </c>
-      <c r="C515" s="4">
-        <v>45573</v>
-      </c>
-      <c r="D515" s="4">
-        <v>45634</v>
+        <v>45477</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="E515" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F515" s="3">
         <v>2</v>
       </c>
       <c r="G515" s="3" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="H515" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516" s="3" t="s">
         <v>763</v>
       </c>
@@ -16337,85 +16339,85 @@
         <v>32</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A517" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="B517" s="4">
-        <v>45573</v>
-      </c>
-      <c r="C517" s="4">
-        <v>45634</v>
+        <v>534</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D517" s="3" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="E517" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F517" s="3">
         <v>2</v>
       </c>
       <c r="G517" s="3" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="H517" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A518" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B518" s="4">
-        <v>45299</v>
-      </c>
-      <c r="C518" s="4">
-        <v>45512</v>
+        <v>666</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C518" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D518" s="3" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="E518" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F518" s="3">
         <v>2</v>
       </c>
       <c r="G518" s="3" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="H518" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A519" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="B519" s="4">
-        <v>45359</v>
-      </c>
-      <c r="C519" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D519" s="3" t="s">
-        <v>232</v>
+        <v>409</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C519" s="4">
+        <v>45354</v>
+      </c>
+      <c r="D519" s="4">
+        <v>45354</v>
       </c>
       <c r="E519" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F519" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G519" s="3" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="H519" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520" s="3" t="s">
         <v>767</v>
       </c>
@@ -16441,7 +16443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521" s="3" t="s">
         <v>768</v>
       </c>
@@ -16467,7 +16469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522" s="3" t="s">
         <v>769</v>
       </c>
@@ -16493,7 +16495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523" s="3" t="s">
         <v>770</v>
       </c>
@@ -16519,7 +16521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524" s="3" t="s">
         <v>771</v>
       </c>
@@ -16545,44 +16547,44 @@
         <v>12</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A525" s="3" t="s">
-        <v>772</v>
+        <v>607</v>
       </c>
       <c r="B525" s="4">
-        <v>45604</v>
+        <v>45630</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c r="D525" s="3" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="E525" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F525" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G525" s="3" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="H525" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A526" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B526" s="3" t="s">
-        <v>211</v>
+        <v>608</v>
+      </c>
+      <c r="B526" s="4">
+        <v>45630</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="E526" s="3">
         <v>4</v>
@@ -16591,50 +16593,50 @@
         <v>4</v>
       </c>
       <c r="G526" s="3" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="H526" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A527" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="B527" s="4">
-        <v>45573</v>
+        <v>609</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="D527" s="3" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="E527" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F527" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G527" s="3" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="H527" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A528" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B528" s="4">
-        <v>45451</v>
+        <v>610</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c r="D528" s="3" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="E528" s="3">
         <v>4</v>
@@ -16643,13 +16645,13 @@
         <v>4</v>
       </c>
       <c r="G528" s="3" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="H528" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529" s="3" t="s">
         <v>776</v>
       </c>
@@ -16675,7 +16677,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530" s="3" t="s">
         <v>777</v>
       </c>
@@ -16701,7 +16703,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531" s="3" t="s">
         <v>778</v>
       </c>
@@ -16727,33 +16729,33 @@
         <v>36</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A532" s="3" t="s">
-        <v>779</v>
+        <v>611</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="E532" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F532" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G532" s="3" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="H532" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533" s="3" t="s">
         <v>780</v>
       </c>
@@ -16779,7 +16781,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534" s="3" t="s">
         <v>781</v>
       </c>
@@ -16805,7 +16807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535" s="3" t="s">
         <v>782</v>
       </c>
@@ -16831,7 +16833,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" s="3" t="s">
         <v>783</v>
       </c>
@@ -16857,7 +16859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" s="3" t="s">
         <v>784</v>
       </c>
@@ -16883,7 +16885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" s="3" t="s">
         <v>785</v>
       </c>
@@ -16909,7 +16911,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" s="3" t="s">
         <v>786</v>
       </c>
@@ -16935,44 +16937,44 @@
         <v>32</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A540" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="B540" s="4">
-        <v>45634</v>
+        <v>612</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="D540" s="3" t="s">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="E540" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F540" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G540" s="3" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="H540" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A541" s="3" t="s">
-        <v>788</v>
+        <v>613</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>233</v>
+        <v>135</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="D541" s="3" t="s">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="E541" s="3">
         <v>4</v>
@@ -16981,50 +16983,50 @@
         <v>4</v>
       </c>
       <c r="G541" s="3" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="H541" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A542" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="B542" s="4">
-        <v>45631</v>
+        <v>614</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="D542" s="3" t="s">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="E542" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F542" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G542" s="3" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="H542" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A543" s="3" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C543" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D543" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="D543" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="E543" s="3">
         <v>4</v>
@@ -17033,24 +17035,24 @@
         <v>4</v>
       </c>
       <c r="G543" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H543" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A544" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="B544" s="3" t="s">
-        <v>233</v>
+        <v>775</v>
+      </c>
+      <c r="B544" s="4">
+        <v>45451</v>
       </c>
       <c r="C544" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D544" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="D544" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="E544" s="3">
         <v>4</v>
@@ -17059,13 +17061,13 @@
         <v>4</v>
       </c>
       <c r="G544" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H544" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" s="3" t="s">
         <v>792</v>
       </c>
@@ -17091,7 +17093,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" s="3" t="s">
         <v>793</v>
       </c>
@@ -17117,7 +17119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" s="3" t="s">
         <v>794</v>
       </c>
@@ -17143,7 +17145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" s="3" t="s">
         <v>795</v>
       </c>
@@ -17169,18 +17171,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A549" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="B549" s="4">
-        <v>45573</v>
+        <v>788</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E549" s="3">
         <v>4</v>
@@ -17189,50 +17191,50 @@
         <v>4</v>
       </c>
       <c r="G549" s="3" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="H549" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A550" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="B550" s="4">
-        <v>45573</v>
+        <v>790</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D550" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E550" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F550" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G550" s="3" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="H550" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A551" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="B551" s="4">
-        <v>45634</v>
-      </c>
-      <c r="C551" s="4">
-        <v>45634</v>
+        <v>791</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="D551" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E551" s="3">
         <v>4</v>
@@ -17241,15 +17243,15 @@
         <v>4</v>
       </c>
       <c r="G551" s="3" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="H551" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A552" s="3" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B552" s="4">
         <v>45573</v>
@@ -17261,10 +17263,10 @@
         <v>241</v>
       </c>
       <c r="E552" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F552" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G552" s="3" t="s">
         <v>25</v>
@@ -17273,18 +17275,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A553" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B553" s="4">
-        <v>45573</v>
-      </c>
-      <c r="C553" s="3" t="s">
-        <v>233</v>
+        <v>45634</v>
+      </c>
+      <c r="C553" s="4">
+        <v>45634</v>
       </c>
       <c r="D553" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E553" s="3">
         <v>4</v>
@@ -17299,12 +17301,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A554" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B554" s="4">
-        <v>45451</v>
+        <v>45573</v>
       </c>
       <c r="C554" s="3" t="s">
         <v>233</v>
@@ -17313,10 +17315,10 @@
         <v>241</v>
       </c>
       <c r="E554" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F554" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G554" s="3" t="s">
         <v>25</v>
@@ -17326,6 +17328,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H554" xr:uid="{EEF9EC4E-F507-4FCC-87A1-AD6CC241CBB9}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="EASTERN"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:H554">
+      <sortCondition ref="E1:E554"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/measles_lab.xlsx
+++ b/data/measles_lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc-my.sharepoint.com/personal/wxf7_cdc_gov/Documents/GitHub/rtsl_assessment/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{63A3D604-FD71-40DF-BAFE-C4B48CE75D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDE2815F-EFB0-41A9-AA3C-5CF315D54C10}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{63A3D604-FD71-40DF-BAFE-C4B48CE75D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C757B2F7-2BBB-482A-8CB8-5853F7178BC7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{423F26A5-AE63-403D-9D47-A5DE55E42BE2}"/>
   </bookViews>
@@ -2883,11 +2883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF9EC4E-F507-4FCC-87A1-AD6CC241CBB9}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
-      <selection activeCell="E512" sqref="E512"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2931,7 +2930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>249</v>
       </c>
@@ -2957,7 +2956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>250</v>
       </c>
@@ -2983,7 +2982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>251</v>
       </c>
@@ -3009,7 +3008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>252</v>
       </c>
@@ -3038,7 +3037,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>253</v>
       </c>
@@ -3154,7 +3153,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>257</v>
       </c>
@@ -3183,7 +3182,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>258</v>
       </c>
@@ -3209,7 +3208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>259</v>
       </c>
@@ -3235,7 +3234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>260</v>
       </c>
@@ -3261,7 +3260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>261</v>
       </c>
@@ -3287,7 +3286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>262</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>263</v>
       </c>
@@ -3365,7 +3364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>265</v>
       </c>
@@ -3469,7 +3468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>269</v>
       </c>
@@ -3495,7 +3494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>270</v>
       </c>
@@ -3521,7 +3520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>271</v>
       </c>
@@ -3547,7 +3546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>272</v>
       </c>
@@ -3573,7 +3572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>273</v>
       </c>
@@ -3599,7 +3598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>274</v>
       </c>
@@ -3625,7 +3624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>275</v>
       </c>
@@ -3651,7 +3650,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>276</v>
       </c>
@@ -3677,7 +3676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>277</v>
       </c>
@@ -3703,7 +3702,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>278</v>
       </c>
@@ -3807,7 +3806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>282</v>
       </c>
@@ -3833,7 +3832,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>283</v>
       </c>
@@ -3859,7 +3858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>284</v>
       </c>
@@ -3885,7 +3884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>285</v>
       </c>
@@ -3911,7 +3910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>286</v>
       </c>
@@ -3937,7 +3936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>287</v>
       </c>
@@ -3963,7 +3962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>288</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>289</v>
       </c>
@@ -4015,7 +4014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>290</v>
       </c>
@@ -4041,7 +4040,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>291</v>
       </c>
@@ -4067,7 +4066,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>292</v>
       </c>
@@ -4119,7 +4118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>294</v>
       </c>
@@ -4145,7 +4144,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>295</v>
       </c>
@@ -4223,7 +4222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>298</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>299</v>
       </c>
@@ -4301,7 +4300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>301</v>
       </c>
@@ -4327,7 +4326,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>302</v>
       </c>
@@ -4353,7 +4352,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>303</v>
       </c>
@@ -4379,7 +4378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>304</v>
       </c>
@@ -4405,7 +4404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>305</v>
       </c>
@@ -4431,7 +4430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>306</v>
       </c>
@@ -4457,7 +4456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>307</v>
       </c>
@@ -4483,7 +4482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>308</v>
       </c>
@@ -4509,7 +4508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>309</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>310</v>
       </c>
@@ -4561,7 +4560,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>311</v>
       </c>
@@ -4587,7 +4586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>312</v>
       </c>
@@ -4613,7 +4612,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>313</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>314</v>
       </c>
@@ -4665,7 +4664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>315</v>
       </c>
@@ -4691,7 +4690,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>316</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>317</v>
       </c>
@@ -4743,7 +4742,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>318</v>
       </c>
@@ -4769,7 +4768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>319</v>
       </c>
@@ -4795,7 +4794,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>320</v>
       </c>
@@ -4821,7 +4820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>321</v>
       </c>
@@ -4847,7 +4846,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>322</v>
       </c>
@@ -4873,7 +4872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>323</v>
       </c>
@@ -4899,7 +4898,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>324</v>
       </c>
@@ -4925,7 +4924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>325</v>
       </c>
@@ -4951,7 +4950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>326</v>
       </c>
@@ -4977,7 +4976,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>327</v>
       </c>
@@ -5003,7 +5002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>328</v>
       </c>
@@ -5029,7 +5028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>329</v>
       </c>
@@ -5055,7 +5054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>330</v>
       </c>
@@ -5081,7 +5080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>331</v>
       </c>
@@ -5107,7 +5106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>332</v>
       </c>
@@ -5133,7 +5132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>333</v>
       </c>
@@ -5159,7 +5158,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>334</v>
       </c>
@@ -5185,7 +5184,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>335</v>
       </c>
@@ -5211,7 +5210,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>336</v>
       </c>
@@ -5237,7 +5236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>337</v>
       </c>
@@ -5263,7 +5262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>338</v>
       </c>
@@ -5289,7 +5288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>339</v>
       </c>
@@ -5315,7 +5314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>340</v>
       </c>
@@ -5341,7 +5340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>341</v>
       </c>
@@ -5471,7 +5470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>346</v>
       </c>
@@ -5497,7 +5496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>347</v>
       </c>
@@ -5575,7 +5574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>350</v>
       </c>
@@ -5601,7 +5600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>351</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>352</v>
       </c>
@@ -5653,7 +5652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>353</v>
       </c>
@@ -5679,7 +5678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>354</v>
       </c>
@@ -5705,7 +5704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>355</v>
       </c>
@@ -5731,7 +5730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>356</v>
       </c>
@@ -5757,7 +5756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>357</v>
       </c>
@@ -5783,7 +5782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>358</v>
       </c>
@@ -5809,7 +5808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>359</v>
       </c>
@@ -5835,7 +5834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>360</v>
       </c>
@@ -5861,7 +5860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>361</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>362</v>
       </c>
@@ -5913,7 +5912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>363</v>
       </c>
@@ -6017,7 +6016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>367</v>
       </c>
@@ -6043,7 +6042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>368</v>
       </c>
@@ -6069,7 +6068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>369</v>
       </c>
@@ -6095,7 +6094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>370</v>
       </c>
@@ -6121,7 +6120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>371</v>
       </c>
@@ -6147,7 +6146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>372</v>
       </c>
@@ -6173,7 +6172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>373</v>
       </c>
@@ -6199,7 +6198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>374</v>
       </c>
@@ -6225,7 +6224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>375</v>
       </c>
@@ -6251,7 +6250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>376</v>
       </c>
@@ -6277,7 +6276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>377</v>
       </c>
@@ -6303,7 +6302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>378</v>
       </c>
@@ -6329,7 +6328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>379</v>
       </c>
@@ -6355,7 +6354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>380</v>
       </c>
@@ -6381,7 +6380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>381</v>
       </c>
@@ -6407,7 +6406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>382</v>
       </c>
@@ -6433,7 +6432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>383</v>
       </c>
@@ -6459,7 +6458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>384</v>
       </c>
@@ -6485,7 +6484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>385</v>
       </c>
@@ -6537,7 +6536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>387</v>
       </c>
@@ -6589,7 +6588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>389</v>
       </c>
@@ -6615,7 +6614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>390</v>
       </c>
@@ -6719,7 +6718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>394</v>
       </c>
@@ -6745,7 +6744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>395</v>
       </c>
@@ -6771,7 +6770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>396</v>
       </c>
@@ -6797,7 +6796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>397</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>398</v>
       </c>
@@ -6849,7 +6848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>399</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>400</v>
       </c>
@@ -6927,7 +6926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>402</v>
       </c>
@@ -6953,7 +6952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>403</v>
       </c>
@@ -6979,7 +6978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>404</v>
       </c>
@@ -7005,7 +7004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>405</v>
       </c>
@@ -7031,7 +7030,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>406</v>
       </c>
@@ -7057,7 +7056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>407</v>
       </c>
@@ -7083,7 +7082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>408</v>
       </c>
@@ -7135,7 +7134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>410</v>
       </c>
@@ -7161,7 +7160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>411</v>
       </c>
@@ -7187,7 +7186,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>412</v>
       </c>
@@ -7213,7 +7212,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>413</v>
       </c>
@@ -7239,7 +7238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>414</v>
       </c>
@@ -7265,7 +7264,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>415</v>
       </c>
@@ -7291,7 +7290,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>416</v>
       </c>
@@ -7317,7 +7316,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>417</v>
       </c>
@@ -7343,7 +7342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>418</v>
       </c>
@@ -7447,7 +7446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>422</v>
       </c>
@@ -7473,7 +7472,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>423</v>
       </c>
@@ -7499,7 +7498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>424</v>
       </c>
@@ -7577,7 +7576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>427</v>
       </c>
@@ -7603,7 +7602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>428</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>429</v>
       </c>
@@ -7655,7 +7654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>430</v>
       </c>
@@ -7681,7 +7680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>431</v>
       </c>
@@ -7707,7 +7706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>432</v>
       </c>
@@ -7733,7 +7732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>433</v>
       </c>
@@ -7759,7 +7758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>434</v>
       </c>
@@ -7785,7 +7784,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>435</v>
       </c>
@@ -7863,7 +7862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>438</v>
       </c>
@@ -7889,7 +7888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>439</v>
       </c>
@@ -7915,7 +7914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>440</v>
       </c>
@@ -7941,7 +7940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>441</v>
       </c>
@@ -7993,7 +7992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>443</v>
       </c>
@@ -8019,7 +8018,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>444</v>
       </c>
@@ -8045,7 +8044,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>445</v>
       </c>
@@ -8071,7 +8070,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>446</v>
       </c>
@@ -8097,7 +8096,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>447</v>
       </c>
@@ -8123,7 +8122,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>448</v>
       </c>
@@ -8175,7 +8174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>450</v>
       </c>
@@ -8201,7 +8200,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>451</v>
       </c>
@@ -8227,7 +8226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>452</v>
       </c>
@@ -8253,7 +8252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>453</v>
       </c>
@@ -8279,7 +8278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>454</v>
       </c>
@@ -8305,7 +8304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>455</v>
       </c>
@@ -8331,7 +8330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>456</v>
       </c>
@@ -8357,7 +8356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>457</v>
       </c>
@@ -8383,7 +8382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>458</v>
       </c>
@@ -8409,7 +8408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>459</v>
       </c>
@@ -8435,7 +8434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>460</v>
       </c>
@@ -8461,7 +8460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>461</v>
       </c>
@@ -8487,7 +8486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>462</v>
       </c>
@@ -8513,7 +8512,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>463</v>
       </c>
@@ -8539,7 +8538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>464</v>
       </c>
@@ -8565,7 +8564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>465</v>
       </c>
@@ -8591,7 +8590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>466</v>
       </c>
@@ -8617,7 +8616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>467</v>
       </c>
@@ -8643,7 +8642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>468</v>
       </c>
@@ -9033,7 +9032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
         <v>483</v>
       </c>
@@ -9059,7 +9058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
         <v>484</v>
       </c>
@@ -9085,7 +9084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
         <v>485</v>
       </c>
@@ -9111,7 +9110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
         <v>486</v>
       </c>
@@ -9163,7 +9162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
         <v>488</v>
       </c>
@@ -9189,7 +9188,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
         <v>489</v>
       </c>
@@ -9215,7 +9214,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
         <v>490</v>
       </c>
@@ -9241,7 +9240,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
         <v>491</v>
       </c>
@@ -9267,7 +9266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
         <v>492</v>
       </c>
@@ -9293,7 +9292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
         <v>493</v>
       </c>
@@ -9319,7 +9318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
         <v>494</v>
       </c>
@@ -9345,7 +9344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
         <v>495</v>
       </c>
@@ -9371,7 +9370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
         <v>496</v>
       </c>
@@ -9397,7 +9396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
         <v>497</v>
       </c>
@@ -9423,7 +9422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
         <v>498</v>
       </c>
@@ -9449,7 +9448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
         <v>499</v>
       </c>
@@ -9475,7 +9474,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
         <v>500</v>
       </c>
@@ -9501,7 +9500,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
         <v>501</v>
       </c>
@@ -9527,7 +9526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
         <v>502</v>
       </c>
@@ -9553,7 +9552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
         <v>503</v>
       </c>
@@ -9605,7 +9604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
         <v>505</v>
       </c>
@@ -9631,7 +9630,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
         <v>506</v>
       </c>
@@ -9657,7 +9656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
         <v>507</v>
       </c>
@@ -9735,7 +9734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
         <v>510</v>
       </c>
@@ -9761,7 +9760,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
         <v>511</v>
       </c>
@@ -9787,7 +9786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
         <v>512</v>
       </c>
@@ -9813,7 +9812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
         <v>513</v>
       </c>
@@ -9839,7 +9838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
         <v>514</v>
       </c>
@@ -9865,7 +9864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
         <v>515</v>
       </c>
@@ -9891,7 +9890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
         <v>516</v>
       </c>
@@ -9917,7 +9916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
         <v>517</v>
       </c>
@@ -9943,7 +9942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>518</v>
       </c>
@@ -9969,7 +9968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
         <v>519</v>
       </c>
@@ -10021,7 +10020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
         <v>521</v>
       </c>
@@ -10099,7 +10098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
         <v>524</v>
       </c>
@@ -10125,7 +10124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
         <v>525</v>
       </c>
@@ -10151,7 +10150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
         <v>526</v>
       </c>
@@ -10177,7 +10176,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
         <v>527</v>
       </c>
@@ -10281,7 +10280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
         <v>531</v>
       </c>
@@ -10567,7 +10566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
         <v>542</v>
       </c>
@@ -10593,7 +10592,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
         <v>543</v>
       </c>
@@ -10645,7 +10644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
         <v>545</v>
       </c>
@@ -10671,7 +10670,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
         <v>546</v>
       </c>
@@ -10697,7 +10696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
         <v>547</v>
       </c>
@@ -10723,7 +10722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
         <v>548</v>
       </c>
@@ -10749,7 +10748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
         <v>549</v>
       </c>
@@ -10775,7 +10774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
         <v>550</v>
       </c>
@@ -10827,7 +10826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
         <v>552</v>
       </c>
@@ -10853,7 +10852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" s="3" t="s">
         <v>553</v>
       </c>
@@ -10879,7 +10878,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" s="3" t="s">
         <v>554</v>
       </c>
@@ -10957,7 +10956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" s="3" t="s">
         <v>557</v>
       </c>
@@ -10983,7 +10982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" s="3" t="s">
         <v>558</v>
       </c>
@@ -11061,7 +11060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" s="3" t="s">
         <v>561</v>
       </c>
@@ -11087,7 +11086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" s="3" t="s">
         <v>562</v>
       </c>
@@ -11113,7 +11112,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" s="3" t="s">
         <v>563</v>
       </c>
@@ -11139,7 +11138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" s="3" t="s">
         <v>564</v>
       </c>
@@ -11295,7 +11294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323" s="3" t="s">
         <v>570</v>
       </c>
@@ -11321,7 +11320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324" s="3" t="s">
         <v>571</v>
       </c>
@@ -11347,7 +11346,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325" s="3" t="s">
         <v>572</v>
       </c>
@@ -11373,7 +11372,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326" s="3" t="s">
         <v>573</v>
       </c>
@@ -11399,7 +11398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327" s="3" t="s">
         <v>574</v>
       </c>
@@ -11425,7 +11424,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328" s="3" t="s">
         <v>575</v>
       </c>
@@ -11451,7 +11450,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329" s="3" t="s">
         <v>576</v>
       </c>
@@ -11477,7 +11476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
         <v>577</v>
       </c>
@@ -11503,7 +11502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331" s="3" t="s">
         <v>578</v>
       </c>
@@ -11555,7 +11554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333" s="3" t="s">
         <v>580</v>
       </c>
@@ -11581,7 +11580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334" s="3" t="s">
         <v>581</v>
       </c>
@@ -11607,7 +11606,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335" s="3" t="s">
         <v>582</v>
       </c>
@@ -11633,7 +11632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336" s="3" t="s">
         <v>583</v>
       </c>
@@ -11659,7 +11658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337" s="3" t="s">
         <v>584</v>
       </c>
@@ -11685,7 +11684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338" s="3" t="s">
         <v>585</v>
       </c>
@@ -11711,7 +11710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339" s="3" t="s">
         <v>586</v>
       </c>
@@ -11737,7 +11736,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340" s="3" t="s">
         <v>587</v>
       </c>
@@ -11763,7 +11762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341" s="3" t="s">
         <v>588</v>
       </c>
@@ -11789,7 +11788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342" s="3" t="s">
         <v>589</v>
       </c>
@@ -11815,7 +11814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343" s="3" t="s">
         <v>590</v>
       </c>
@@ -11841,7 +11840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344" s="3" t="s">
         <v>591</v>
       </c>
@@ -11867,7 +11866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345" s="3" t="s">
         <v>592</v>
       </c>
@@ -11893,7 +11892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346" s="3" t="s">
         <v>593</v>
       </c>
@@ -11919,7 +11918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347" s="3" t="s">
         <v>594</v>
       </c>
@@ -11945,7 +11944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348" s="3" t="s">
         <v>595</v>
       </c>
@@ -11997,7 +11996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350" s="3" t="s">
         <v>597</v>
       </c>
@@ -12049,7 +12048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352" s="3" t="s">
         <v>599</v>
       </c>
@@ -12075,7 +12074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353" s="3" t="s">
         <v>600</v>
       </c>
@@ -12101,7 +12100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354" s="3" t="s">
         <v>601</v>
       </c>
@@ -12127,7 +12126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355" s="3" t="s">
         <v>602</v>
       </c>
@@ -12153,7 +12152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356" s="3" t="s">
         <v>603</v>
       </c>
@@ -12179,7 +12178,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357" s="3" t="s">
         <v>604</v>
       </c>
@@ -12205,7 +12204,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358" s="3" t="s">
         <v>605</v>
       </c>
@@ -12231,7 +12230,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359" s="3" t="s">
         <v>606</v>
       </c>
@@ -12465,7 +12464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368" s="3" t="s">
         <v>615</v>
       </c>
@@ -12491,7 +12490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369" s="3" t="s">
         <v>616</v>
       </c>
@@ -12517,7 +12516,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370" s="3" t="s">
         <v>617</v>
       </c>
@@ -12621,7 +12620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374" s="3" t="s">
         <v>621</v>
       </c>
@@ -12647,7 +12646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375" s="3" t="s">
         <v>622</v>
       </c>
@@ -12673,7 +12672,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376" s="3" t="s">
         <v>623</v>
       </c>
@@ -12699,7 +12698,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377" s="3" t="s">
         <v>624</v>
       </c>
@@ -12725,7 +12724,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378" s="3" t="s">
         <v>625</v>
       </c>
@@ -12751,7 +12750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379" s="3" t="s">
         <v>626</v>
       </c>
@@ -12777,7 +12776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380" s="3" t="s">
         <v>627</v>
       </c>
@@ -12803,7 +12802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381" s="3" t="s">
         <v>628</v>
       </c>
@@ -12829,7 +12828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382" s="3" t="s">
         <v>629</v>
       </c>
@@ -12855,7 +12854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A383" s="3" t="s">
         <v>630</v>
       </c>
@@ -12881,7 +12880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A384" s="3" t="s">
         <v>631</v>
       </c>
@@ -12907,7 +12906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A385" s="3" t="s">
         <v>632</v>
       </c>
@@ -12933,7 +12932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A386" s="3" t="s">
         <v>633</v>
       </c>
@@ -12985,7 +12984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388" s="3" t="s">
         <v>635</v>
       </c>
@@ -13089,7 +13088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392" s="3" t="s">
         <v>639</v>
       </c>
@@ -13115,7 +13114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393" s="3" t="s">
         <v>640</v>
       </c>
@@ -13141,7 +13140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394" s="3" t="s">
         <v>641</v>
       </c>
@@ -13167,7 +13166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395" s="3" t="s">
         <v>642</v>
       </c>
@@ -13193,7 +13192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396" s="3" t="s">
         <v>643</v>
       </c>
@@ -13219,7 +13218,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397" s="3" t="s">
         <v>644</v>
       </c>
@@ -13245,7 +13244,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398" s="3" t="s">
         <v>645</v>
       </c>
@@ -13271,7 +13270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399" s="3" t="s">
         <v>646</v>
       </c>
@@ -13297,7 +13296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400" s="3" t="s">
         <v>647</v>
       </c>
@@ -13349,7 +13348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402" s="3" t="s">
         <v>649</v>
       </c>
@@ -13375,7 +13374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403" s="3" t="s">
         <v>650</v>
       </c>
@@ -13401,7 +13400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404" s="3" t="s">
         <v>651</v>
       </c>
@@ -13427,7 +13426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405" s="3" t="s">
         <v>652</v>
       </c>
@@ -13453,7 +13452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406" s="3" t="s">
         <v>653</v>
       </c>
@@ -13479,7 +13478,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407" s="3" t="s">
         <v>654</v>
       </c>
@@ -13505,7 +13504,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408" s="3" t="s">
         <v>655</v>
       </c>
@@ -13531,7 +13530,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409" s="3" t="s">
         <v>656</v>
       </c>
@@ -13557,7 +13556,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410" s="3" t="s">
         <v>657</v>
       </c>
@@ -13583,7 +13582,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411" s="3" t="s">
         <v>658</v>
       </c>
@@ -13609,7 +13608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412" s="3" t="s">
         <v>659</v>
       </c>
@@ -13635,7 +13634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413" s="3" t="s">
         <v>660</v>
       </c>
@@ -13661,7 +13660,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414" s="3" t="s">
         <v>661</v>
       </c>
@@ -13687,7 +13686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415" s="3" t="s">
         <v>662</v>
       </c>
@@ -13713,7 +13712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416" s="3" t="s">
         <v>663</v>
       </c>
@@ -13843,7 +13842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A421" s="3" t="s">
         <v>668</v>
       </c>
@@ -13869,7 +13868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A422" s="3" t="s">
         <v>669</v>
       </c>
@@ -13895,7 +13894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A423" s="3" t="s">
         <v>670</v>
       </c>
@@ -13921,7 +13920,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A424" s="3" t="s">
         <v>671</v>
       </c>
@@ -13947,7 +13946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A425" s="3" t="s">
         <v>672</v>
       </c>
@@ -13973,7 +13972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A426" s="3" t="s">
         <v>673</v>
       </c>
@@ -13999,7 +13998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A427" s="3" t="s">
         <v>674</v>
       </c>
@@ -14025,7 +14024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A428" s="3" t="s">
         <v>675</v>
       </c>
@@ -14051,7 +14050,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A429" s="3" t="s">
         <v>676</v>
       </c>
@@ -14077,7 +14076,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A430" s="3" t="s">
         <v>677</v>
       </c>
@@ -14103,7 +14102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A431" s="3" t="s">
         <v>678</v>
       </c>
@@ -14129,7 +14128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A432" s="3" t="s">
         <v>679</v>
       </c>
@@ -14155,7 +14154,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A433" s="3" t="s">
         <v>680</v>
       </c>
@@ -14181,7 +14180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A434" s="3" t="s">
         <v>681</v>
       </c>
@@ -14207,7 +14206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A435" s="3" t="s">
         <v>682</v>
       </c>
@@ -14311,7 +14310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A439" s="3" t="s">
         <v>686</v>
       </c>
@@ -14337,7 +14336,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A440" s="3" t="s">
         <v>687</v>
       </c>
@@ -14363,7 +14362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A441" s="3" t="s">
         <v>688</v>
       </c>
@@ -14389,7 +14388,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A442" s="3" t="s">
         <v>689</v>
       </c>
@@ -14415,7 +14414,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A443" s="3" t="s">
         <v>690</v>
       </c>
@@ -14441,7 +14440,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A444" s="3" t="s">
         <v>691</v>
       </c>
@@ -14467,7 +14466,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A445" s="3" t="s">
         <v>692</v>
       </c>
@@ -14493,7 +14492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A446" s="3" t="s">
         <v>693</v>
       </c>
@@ -14519,7 +14518,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A447" s="3" t="s">
         <v>694</v>
       </c>
@@ -14545,7 +14544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A448" s="3" t="s">
         <v>695</v>
       </c>
@@ -14571,7 +14570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A449" s="3" t="s">
         <v>696</v>
       </c>
@@ -14597,7 +14596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A450" s="3" t="s">
         <v>697</v>
       </c>
@@ -14623,7 +14622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A451" s="3" t="s">
         <v>698</v>
       </c>
@@ -14675,7 +14674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A453" s="3" t="s">
         <v>700</v>
       </c>
@@ -14701,7 +14700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A454" s="3" t="s">
         <v>701</v>
       </c>
@@ -14753,7 +14752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A456" s="3" t="s">
         <v>703</v>
       </c>
@@ -14779,7 +14778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A457" s="3" t="s">
         <v>704</v>
       </c>
@@ -14805,7 +14804,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A458" s="3" t="s">
         <v>705</v>
       </c>
@@ -14831,7 +14830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A459" s="3" t="s">
         <v>706</v>
       </c>
@@ -14857,7 +14856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A460" s="3" t="s">
         <v>707</v>
       </c>
@@ -14883,7 +14882,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A461" s="3" t="s">
         <v>708</v>
       </c>
@@ -14909,7 +14908,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A462" s="3" t="s">
         <v>709</v>
       </c>
@@ -14935,7 +14934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A463" s="3" t="s">
         <v>710</v>
       </c>
@@ -15091,7 +15090,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A469" s="3" t="s">
         <v>716</v>
       </c>
@@ -15117,7 +15116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A470" s="3" t="s">
         <v>717</v>
       </c>
@@ -15143,7 +15142,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A471" s="3" t="s">
         <v>718</v>
       </c>
@@ -15169,7 +15168,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A472" s="3" t="s">
         <v>719</v>
       </c>
@@ -15195,7 +15194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A473" s="3" t="s">
         <v>720</v>
       </c>
@@ -15221,7 +15220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A474" s="3" t="s">
         <v>721</v>
       </c>
@@ -15247,7 +15246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475" s="3" t="s">
         <v>722</v>
       </c>
@@ -15273,7 +15272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476" s="3" t="s">
         <v>723</v>
       </c>
@@ -15299,7 +15298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477" s="3" t="s">
         <v>724</v>
       </c>
@@ -15325,7 +15324,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A478" s="3" t="s">
         <v>725</v>
       </c>
@@ -15351,7 +15350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A479" s="3" t="s">
         <v>726</v>
       </c>
@@ -15377,7 +15376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A480" s="3" t="s">
         <v>727</v>
       </c>
@@ -15403,7 +15402,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A481" s="3" t="s">
         <v>728</v>
       </c>
@@ -15429,7 +15428,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A482" s="3" t="s">
         <v>729</v>
       </c>
@@ -15455,7 +15454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A483" s="3" t="s">
         <v>730</v>
       </c>
@@ -15481,7 +15480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A484" s="3" t="s">
         <v>731</v>
       </c>
@@ -15507,7 +15506,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A485" s="3" t="s">
         <v>732</v>
       </c>
@@ -15533,7 +15532,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A486" s="3" t="s">
         <v>733</v>
       </c>
@@ -15559,7 +15558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A487" s="3" t="s">
         <v>734</v>
       </c>
@@ -15585,7 +15584,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A488" s="3" t="s">
         <v>735</v>
       </c>
@@ -15611,7 +15610,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A489" s="3" t="s">
         <v>736</v>
       </c>
@@ -15637,7 +15636,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A490" s="3" t="s">
         <v>737</v>
       </c>
@@ -15663,7 +15662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A491" s="3" t="s">
         <v>738</v>
       </c>
@@ -15689,7 +15688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A492" s="3" t="s">
         <v>739</v>
       </c>
@@ -16001,7 +16000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A504" s="3" t="s">
         <v>751</v>
       </c>
@@ -16313,7 +16312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A516" s="3" t="s">
         <v>763</v>
       </c>
@@ -16417,7 +16416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A520" s="3" t="s">
         <v>767</v>
       </c>
@@ -16443,7 +16442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A521" s="3" t="s">
         <v>768</v>
       </c>
@@ -16469,7 +16468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A522" s="3" t="s">
         <v>769</v>
       </c>
@@ -16495,7 +16494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A523" s="3" t="s">
         <v>770</v>
       </c>
@@ -16521,7 +16520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A524" s="3" t="s">
         <v>771</v>
       </c>
@@ -16651,7 +16650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A529" s="3" t="s">
         <v>776</v>
       </c>
@@ -16677,7 +16676,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A530" s="3" t="s">
         <v>777</v>
       </c>
@@ -16703,7 +16702,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A531" s="3" t="s">
         <v>778</v>
       </c>
@@ -16755,7 +16754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A533" s="3" t="s">
         <v>780</v>
       </c>
@@ -16781,7 +16780,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A534" s="3" t="s">
         <v>781</v>
       </c>
@@ -16807,7 +16806,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A535" s="3" t="s">
         <v>782</v>
       </c>
@@ -16833,7 +16832,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A536" s="3" t="s">
         <v>783</v>
       </c>
@@ -16859,7 +16858,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A537" s="3" t="s">
         <v>784</v>
       </c>
@@ -16885,7 +16884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A538" s="3" t="s">
         <v>785</v>
       </c>
@@ -16911,7 +16910,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A539" s="3" t="s">
         <v>786</v>
       </c>
@@ -17067,7 +17066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A545" s="3" t="s">
         <v>792</v>
       </c>
@@ -17093,7 +17092,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A546" s="3" t="s">
         <v>793</v>
       </c>
@@ -17119,7 +17118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A547" s="3" t="s">
         <v>794</v>
       </c>
@@ -17145,7 +17144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A548" s="3" t="s">
         <v>795</v>
       </c>
@@ -17329,11 +17328,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H554" xr:uid="{EEF9EC4E-F507-4FCC-87A1-AD6CC241CBB9}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="EASTERN"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:H554">
       <sortCondition ref="E1:E554"/>
     </sortState>
